--- a/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD18"/>
+  <dimension ref="A1:BD21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1111,19 +1111,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="I4" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J4" t="n">
         <v>3.5</v>
       </c>
       <c r="K4" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L4" t="n">
         <v>3.6</v>
@@ -1237,7 +1237,7 @@
         <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX4" t="n">
         <v>17</v>
@@ -1296,13 +1296,13 @@
         <v>1.9</v>
       </c>
       <c r="H5" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I5" t="n">
         <v>4.75</v>
       </c>
       <c r="J5" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K5" t="n">
         <v>1.91</v>
@@ -1317,10 +1317,10 @@
         <v>6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P5" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q5" t="n">
         <v>2.7</v>
@@ -1386,7 +1386,7 @@
         <v>51</v>
       </c>
       <c r="AL5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM5" t="n">
         <v>51</v>
@@ -1431,7 +1431,7 @@
         <v>126</v>
       </c>
       <c r="BA5" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB5" t="n">
         <v>501</v>
@@ -1493,10 +1493,10 @@
         <v>7.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O6" t="n">
         <v>1.33</v>
@@ -1505,10 +1505,10 @@
         <v>3.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R6" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S6" t="n">
         <v>1.44</v>
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H7" t="n">
         <v>3.3</v>
@@ -1666,7 +1666,7 @@
         <v>1.91</v>
       </c>
       <c r="J7" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K7" t="n">
         <v>2.05</v>
@@ -1699,16 +1699,16 @@
         <v>2.63</v>
       </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V7" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W7" t="n">
         <v>10</v>
       </c>
       <c r="X7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y7" t="n">
         <v>15</v>
@@ -1717,7 +1717,7 @@
         <v>41</v>
       </c>
       <c r="AA7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AB7" t="n">
         <v>41</v>
@@ -1771,7 +1771,7 @@
         <v>101</v>
       </c>
       <c r="AS7" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT7" t="n">
         <v>2.63</v>
@@ -1795,7 +1795,7 @@
         <v>41</v>
       </c>
       <c r="BA7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB7" t="n">
         <v>201</v>
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H8" t="n">
         <v>3</v>
@@ -2021,40 +2021,40 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="H9" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I9" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="J9" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K9" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M9" t="n">
         <v>1.13</v>
       </c>
       <c r="N9" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O9" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="P9" t="n">
         <v>2.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R9" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S9" t="n">
         <v>1.65</v>
@@ -2069,25 +2069,25 @@
         <v>1.65</v>
       </c>
       <c r="W9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y9" t="n">
         <v>10</v>
       </c>
-      <c r="Y9" t="n">
-        <v>11</v>
-      </c>
       <c r="Z9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA9" t="n">
         <v>23</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>26</v>
       </c>
       <c r="AB9" t="n">
         <v>41</v>
       </c>
       <c r="AC9" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AD9" t="n">
         <v>6</v>
@@ -2102,37 +2102,37 @@
         <v>201</v>
       </c>
       <c r="AH9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>15</v>
       </c>
-      <c r="AJ9" t="n">
-        <v>13</v>
-      </c>
       <c r="AK9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM9" t="n">
         <v>51</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ9" t="n">
         <v>51</v>
       </c>
       <c r="AR9" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS9" t="n">
         <v>301</v>
@@ -2153,10 +2153,10 @@
         <v>21</v>
       </c>
       <c r="AY9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA9" t="n">
         <v>126</v>
@@ -2215,7 +2215,7 @@
         <v>3.75</v>
       </c>
       <c r="K10" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L10" t="n">
         <v>3.4</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>APE9ifU7</t>
+          <t>boe4DyiR</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2376,157 +2376,157 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ZED</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Al Ahly</t>
+          <t>Haras El Hodood</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>5.9</v>
+        <v>1.72</v>
       </c>
       <c r="H11" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>1.55</v>
+        <v>4.9</v>
       </c>
       <c r="J11" t="n">
-        <v>5.8</v>
+        <v>2.25</v>
       </c>
       <c r="K11" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="L11" t="n">
-        <v>2.1</v>
+        <v>5.2</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W11" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="X11" t="n">
         <v>7.5</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W11" t="n">
-        <v>15</v>
-      </c>
-      <c r="X11" t="n">
+      <c r="Y11" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>28</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>30</v>
+      </c>
+      <c r="AY11" t="n">
         <v>35</v>
       </c>
-      <c r="Y11" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>120</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>60</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>35</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>40</v>
-      </c>
-      <c r="AQ11" t="n">
+      <c r="AZ11" t="n">
+        <v>200</v>
+      </c>
+      <c r="BA11" t="n">
         <v>250</v>
       </c>
-      <c r="AR11" t="n">
-        <v>300</v>
-      </c>
-      <c r="AS11" t="n">
+      <c r="BB11" t="n">
         <v>500</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>80</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>24</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>55</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>250</v>
       </c>
       <c r="BC11" t="n">
         <v>51</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Emn9XsgJ</t>
+          <t>jLidFcME</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,179 +2548,179 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Ghazl El Mahallah</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>El Gaish</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="H12" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J12" t="n">
         <v>3.2</v>
       </c>
-      <c r="I12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K12" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="M12" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="N12" t="n">
-        <v>7</v>
+        <v>5.4</v>
       </c>
       <c r="O12" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="P12" t="n">
-        <v>2.75</v>
+        <v>2.52</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="R12" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S12" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="T12" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="V12" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="W12" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="X12" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="Z12" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="AA12" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AB12" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.5</v>
+        <v>5.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="AE12" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AF12" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="AG12" t="n">
-        <v>451</v>
+        <v>700</v>
       </c>
       <c r="AH12" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AI12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ12" t="n">
-        <v>12</v>
+        <v>10.75</v>
       </c>
       <c r="AK12" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="AL12" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AM12" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.33</v>
+        <v>4.45</v>
       </c>
       <c r="AO12" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AP12" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AQ12" t="n">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="AR12" t="n">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="AS12" t="n">
-        <v>201</v>
+        <v>300</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AU12" t="n">
-        <v>8.5</v>
+        <v>6.6</v>
       </c>
       <c r="AV12" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="AW12" t="n">
         <v>5</v>
       </c>
       <c r="AX12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY12" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AZ12" t="n">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="BA12" t="n">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="BB12" t="n">
-        <v>251</v>
+        <v>300</v>
       </c>
       <c r="BC12" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD12" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>fys3y8Yb</t>
+          <t>APE9ifU7</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,179 +2730,179 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Juarez</t>
+          <t>ZED</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Club Tijuana</t>
+          <t>Al Ahly</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.7</v>
+        <v>5.9</v>
       </c>
       <c r="H13" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="J13" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P13" t="n">
         <v>3.4</v>
       </c>
-      <c r="I13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N13" t="n">
+      <c r="Q13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W13" t="n">
         <v>15</v>
       </c>
-      <c r="O13" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R13" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T13" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W13" t="n">
-        <v>12</v>
-      </c>
       <c r="X13" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Y13" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="Z13" t="n">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="AA13" t="n">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="AB13" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="AC13" t="n">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AE13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK13" t="n">
         <v>11</v>
       </c>
-      <c r="AF13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK13" t="n">
+      <c r="AL13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AM13" t="n">
         <v>26</v>
       </c>
-      <c r="AL13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>23</v>
-      </c>
       <c r="AN13" t="n">
-        <v>5</v>
+        <v>7.2</v>
       </c>
       <c r="AO13" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="AP13" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="AQ13" t="n">
-        <v>41</v>
+        <v>250</v>
       </c>
       <c r="AR13" t="n">
+        <v>300</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>24</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>55</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC13" t="n">
         <v>51</v>
       </c>
-      <c r="AS13" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA13" t="n">
+      <c r="BD13" t="n">
         <v>51</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>21pBZo3B</t>
+          <t>Emn9XsgJ</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,98 +2912,98 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>00:05</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Cruz Azul</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.1</v>
+        <v>2.25</v>
       </c>
       <c r="H14" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>1.85</v>
+        <v>3.25</v>
       </c>
       <c r="J14" t="n">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="K14" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N14" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O14" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="P14" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="R14" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="S14" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T14" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U14" t="n">
         <v>2</v>
       </c>
       <c r="V14" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="W14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X14" t="n">
         <v>10</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Y14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z14" t="n">
         <v>21</v>
       </c>
-      <c r="Y14" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>41</v>
-      </c>
       <c r="AA14" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AB14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF14" t="n">
         <v>67</v>
@@ -3012,43 +3012,43 @@
         <v>451</v>
       </c>
       <c r="AH14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI14" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AK14" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AL14" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AM14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN14" t="n">
-        <v>6</v>
+        <v>4.33</v>
       </c>
       <c r="AO14" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AP14" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AQ14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR14" t="n">
         <v>81</v>
       </c>
-      <c r="AR14" t="n">
-        <v>126</v>
-      </c>
       <c r="AS14" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU14" t="n">
         <v>8.5</v>
@@ -3057,34 +3057,34 @@
         <v>67</v>
       </c>
       <c r="AW14" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="AX14" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AY14" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AZ14" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="BA14" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB14" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC14" t="n">
         <v>126</v>
       </c>
       <c r="BD14" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>v12EbqCc</t>
+          <t>21pBZo3B</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,179 +3094,179 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>00:05</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Ruch Chorzow</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Chrobry Glogow</t>
+          <t>Cruz Azul</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.6</v>
+        <v>4.2</v>
       </c>
       <c r="H15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J15" t="n">
+        <v>5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N15" t="n">
+        <v>9</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW15" t="n">
         <v>3.75</v>
       </c>
-      <c r="I15" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L15" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N15" t="n">
-        <v>11</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T15" t="n">
-        <v>3</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W15" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X15" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL15" t="n">
+      <c r="AX15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ15" t="n">
         <v>41</v>
       </c>
-      <c r="AM15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>101</v>
-      </c>
       <c r="BA15" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BB15" t="n">
         <v>201</v>
       </c>
       <c r="BC15" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD15" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>YyDJubM9</t>
+          <t>fys3y8Yb</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,179 +3276,179 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>00:06</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Al Qadisiya</t>
+          <t>Juarez</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Club Tijuana</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.44</v>
+        <v>2.9</v>
       </c>
       <c r="H16" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="I16" t="n">
-        <v>5.5</v>
+        <v>2.35</v>
       </c>
       <c r="J16" t="n">
-        <v>1.95</v>
+        <v>3.25</v>
       </c>
       <c r="K16" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L16" t="n">
-        <v>6</v>
+        <v>2.88</v>
       </c>
       <c r="M16" t="n">
         <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O16" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="P16" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="R16" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="S16" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T16" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U16" t="n">
-        <v>1.91</v>
+        <v>1.53</v>
       </c>
       <c r="V16" t="n">
-        <v>1.8</v>
+        <v>2.38</v>
       </c>
       <c r="W16" t="n">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="X16" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD16" t="n">
         <v>7</v>
       </c>
-      <c r="Y16" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA16" t="n">
+      <c r="AE16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX16" t="n">
         <v>12</v>
       </c>
-      <c r="AB16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF16" t="n">
+      <c r="AY16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA16" t="n">
         <v>51</v>
       </c>
-      <c r="AG16" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>126</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>126</v>
-      </c>
       <c r="BB16" t="n">
-        <v>500</v>
+        <v>101</v>
       </c>
       <c r="BC16" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BD16" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>8fR1hy6F</t>
+          <t>lzAPiPhL</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,179 +3458,179 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>00:05</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Al Kholood</t>
+          <t>Zacatecas Mineros</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Leones Negros</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.7</v>
+        <v>2.12</v>
       </c>
       <c r="H17" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="I17" t="n">
-        <v>1.85</v>
+        <v>3.3</v>
       </c>
       <c r="J17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="M17" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="W17" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="X17" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN17" t="n">
         <v>4</v>
       </c>
-      <c r="K17" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W17" t="n">
-        <v>11</v>
-      </c>
-      <c r="X17" t="n">
+      <c r="AO17" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AP17" t="n">
         <v>19</v>
       </c>
-      <c r="Y17" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF17" t="n">
+      <c r="AQ17" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>75</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>100</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>120</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC17" t="n">
         <v>51</v>
       </c>
-      <c r="AG17" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>350</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV17" t="n">
+      <c r="BD17" t="n">
         <v>51</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>O6ibYFEq</t>
+          <t>v12EbqCc</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,143 +3640,143 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Al Orubah</t>
+          <t>Ruch Chorzow</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Chrobry Glogow</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>7</v>
+        <v>1.57</v>
       </c>
       <c r="H18" t="n">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="I18" t="n">
-        <v>1.38</v>
+        <v>5.25</v>
       </c>
       <c r="J18" t="n">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="K18" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N18" t="n">
+        <v>11</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T18" t="n">
+        <v>3</v>
+      </c>
+      <c r="U18" t="n">
         <v>1.83</v>
       </c>
-      <c r="M18" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P18" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T18" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.8</v>
-      </c>
       <c r="V18" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W18" t="n">
-        <v>21</v>
+        <v>7.5</v>
       </c>
       <c r="X18" t="n">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="Y18" t="n">
-        <v>21</v>
+        <v>8.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="AA18" t="n">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="AB18" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AC18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE18" t="n">
         <v>15</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>17</v>
       </c>
       <c r="AF18" t="n">
         <v>51</v>
       </c>
       <c r="AG18" t="n">
-        <v>500</v>
+        <v>251</v>
       </c>
       <c r="AH18" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AI18" t="n">
-        <v>7.5</v>
+        <v>29</v>
       </c>
       <c r="AJ18" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AK18" t="n">
-        <v>9.5</v>
+        <v>51</v>
       </c>
       <c r="AL18" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="AM18" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AN18" t="n">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO18" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="AP18" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AQ18" t="n">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="AR18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS18" t="n">
         <v>126</v>
       </c>
-      <c r="AS18" t="n">
-        <v>400</v>
-      </c>
       <c r="AT18" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AU18" t="n">
         <v>8.5</v>
@@ -3785,27 +3785,573 @@
         <v>51</v>
       </c>
       <c r="AW18" t="n">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="AX18" t="n">
-        <v>6.5</v>
+        <v>29</v>
       </c>
       <c r="AY18" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AZ18" t="n">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="BA18" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="BB18" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BC18" t="n">
         <v>81</v>
       </c>
       <c r="BD18" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>YyDJubM9</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>07/11/2024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Al Qadisiya</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Al Feiha</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I19" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N19" t="n">
+        <v>9</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="W19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>8fR1hy6F</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>07/11/2024</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Al Kholood</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Al Shabab</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N20" t="n">
+        <v>8</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="W20" t="n">
+        <v>10</v>
+      </c>
+      <c r="X20" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>O6ibYFEq</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>07/11/2024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Al Orubah</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>7</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="J21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="W21" t="n">
+        <v>21</v>
+      </c>
+      <c r="X21" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD21" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
@@ -777,10 +777,10 @@
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S2" t="n">
         <v>1.5</v>
@@ -819,13 +819,13 @@
         <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH2" t="n">
         <v>7</v>
@@ -959,10 +959,10 @@
         <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R3" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -1123,7 +1123,7 @@
         <v>3.5</v>
       </c>
       <c r="K4" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L4" t="n">
         <v>3.6</v>
@@ -1141,10 +1141,10 @@
         <v>2.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R4" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S4" t="n">
         <v>1.57</v>
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
         <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="J7" t="n">
         <v>4.5</v>
@@ -1756,7 +1756,7 @@
         <v>34</v>
       </c>
       <c r="AN7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO7" t="n">
         <v>23</v>
@@ -1783,7 +1783,7 @@
         <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AX7" t="n">
         <v>11</v>
@@ -1795,7 +1795,7 @@
         <v>41</v>
       </c>
       <c r="BA7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB7" t="n">
         <v>201</v>
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H8" t="n">
         <v>3</v>
@@ -2033,22 +2033,22 @@
         <v>3.1</v>
       </c>
       <c r="K9" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L9" t="n">
         <v>4.33</v>
       </c>
       <c r="M9" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="P9" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="Q9" t="n">
         <v>2.7</v>
@@ -2057,22 +2057,22 @@
         <v>1.44</v>
       </c>
       <c r="S9" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="T9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U9" t="n">
         <v>2.15</v>
       </c>
-      <c r="U9" t="n">
-        <v>2.12</v>
-      </c>
       <c r="V9" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="W9" t="n">
         <v>5.5</v>
       </c>
       <c r="X9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y9" t="n">
         <v>10</v>
@@ -2090,7 +2090,7 @@
         <v>6</v>
       </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE9" t="n">
         <v>19</v>
@@ -2147,7 +2147,7 @@
         <v>81</v>
       </c>
       <c r="AW9" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX9" t="n">
         <v>21</v>
@@ -2215,7 +2215,7 @@
         <v>3.75</v>
       </c>
       <c r="K10" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L10" t="n">
         <v>3.4</v>
@@ -2385,19 +2385,19 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I11" t="n">
         <v>4.9</v>
       </c>
       <c r="J11" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="K11" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L11" t="n">
         <v>5.2</v>
@@ -2406,13 +2406,13 @@
         <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P11" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="Q11" t="n">
         <v>2.07</v>
@@ -2427,73 +2427,73 @@
         <v>2.67</v>
       </c>
       <c r="U11" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="V11" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="W11" t="n">
         <v>6.1</v>
       </c>
       <c r="X11" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Z11" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA11" t="n">
         <v>14.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC11" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="AE11" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AF11" t="n">
         <v>90</v>
       </c>
       <c r="AG11" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AH11" t="n">
         <v>11.25</v>
       </c>
       <c r="AI11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ11" t="n">
         <v>16</v>
       </c>
       <c r="AK11" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AL11" t="n">
         <v>55</v>
       </c>
       <c r="AM11" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="AO11" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AP11" t="n">
         <v>17.5</v>
       </c>
       <c r="AQ11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR11" t="n">
         <v>60</v>
@@ -2505,10 +2505,10 @@
         <v>2.67</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AV11" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AW11" t="n">
         <v>6.6</v>
@@ -2526,7 +2526,7 @@
         <v>250</v>
       </c>
       <c r="BB11" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BC11" t="n">
         <v>51</v>
@@ -2567,16 +2567,16 @@
         </is>
       </c>
       <c r="G12" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="H12" t="n">
         <v>2.6</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2.65</v>
       </c>
       <c r="I12" t="n">
         <v>3.15</v>
       </c>
       <c r="J12" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K12" t="n">
         <v>1.88</v>
@@ -2588,19 +2588,19 @@
         <v>1.12</v>
       </c>
       <c r="N12" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="O12" t="n">
         <v>1.47</v>
       </c>
       <c r="P12" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="R12" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S12" t="n">
         <v>1.52</v>
@@ -2618,7 +2618,7 @@
         <v>6.7</v>
       </c>
       <c r="X12" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y12" t="n">
         <v>9.75</v>
@@ -2633,10 +2633,10 @@
         <v>37</v>
       </c>
       <c r="AC12" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AE12" t="n">
         <v>14</v>
@@ -2648,13 +2648,13 @@
         <v>700</v>
       </c>
       <c r="AH12" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AI12" t="n">
         <v>16</v>
       </c>
       <c r="AJ12" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AK12" t="n">
         <v>45</v>
@@ -2678,16 +2678,16 @@
         <v>70</v>
       </c>
       <c r="AR12" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AS12" t="n">
         <v>300</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="AU12" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AV12" t="n">
         <v>60</v>
@@ -3143,10 +3143,10 @@
         <v>2.75</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R15" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S15" t="n">
         <v>1.5</v>
@@ -3307,7 +3307,7 @@
         <v>3.25</v>
       </c>
       <c r="K16" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L16" t="n">
         <v>2.88</v>
@@ -3477,40 +3477,40 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="H17" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I17" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J17" t="n">
         <v>2.75</v>
       </c>
       <c r="K17" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="L17" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="M17" t="n">
-        <v>9.199999999999999</v>
+        <v>9.25</v>
       </c>
       <c r="N17" t="n">
         <v>1.06</v>
       </c>
       <c r="O17" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P17" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R17" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="S17" t="n">
         <v>1.42</v>
@@ -3525,28 +3525,28 @@
         <v>1.98</v>
       </c>
       <c r="W17" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="X17" t="n">
         <v>10.75</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AB17" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AD17" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AE17" t="n">
         <v>13</v>
@@ -3555,7 +3555,7 @@
         <v>55</v>
       </c>
       <c r="AG17" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AH17" t="n">
         <v>10.25</v>
@@ -3564,61 +3564,61 @@
         <v>18</v>
       </c>
       <c r="AJ17" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AK17" t="n">
         <v>45</v>
       </c>
       <c r="AL17" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AM17" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AN17" t="n">
-        <v>4</v>
+        <v>4.15</v>
       </c>
       <c r="AO17" t="n">
         <v>11.25</v>
       </c>
       <c r="AP17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ17" t="n">
         <v>45</v>
       </c>
       <c r="AR17" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AS17" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.45</v>
+        <v>2.62</v>
       </c>
       <c r="AU17" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AV17" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AW17" t="n">
         <v>5.2</v>
       </c>
       <c r="AX17" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AY17" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AZ17" t="n">
+        <v>80</v>
+      </c>
+      <c r="BA17" t="n">
         <v>100</v>
       </c>
-      <c r="BA17" t="n">
-        <v>120</v>
-      </c>
       <c r="BB17" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC17" t="n">
         <v>51</v>
@@ -3659,7 +3659,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H18" t="n">
         <v>3.75</v>
@@ -3677,10 +3677,10 @@
         <v>5.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O18" t="n">
         <v>1.25</v>
@@ -3689,10 +3689,10 @@
         <v>3.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="R18" t="n">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="S18" t="n">
         <v>1.36</v>
@@ -3841,7 +3841,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="H19" t="n">
         <v>4.5</v>
@@ -3856,7 +3856,7 @@
         <v>2.3</v>
       </c>
       <c r="L19" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M19" t="n">
         <v>1.04</v>
@@ -3865,34 +3865,34 @@
         <v>9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P19" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R19" t="n">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="S19" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T19" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U19" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V19" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="W19" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X19" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
@@ -3913,7 +3913,7 @@
         <v>9</v>
       </c>
       <c r="AE19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF19" t="n">
         <v>67</v>
@@ -3934,7 +3934,7 @@
         <v>67</v>
       </c>
       <c r="AL19" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM19" t="n">
         <v>51</v>
@@ -3955,16 +3955,16 @@
         <v>41</v>
       </c>
       <c r="AS19" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT19" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU19" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV19" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW19" t="n">
         <v>8</v>
@@ -4029,7 +4029,7 @@
         <v>3.25</v>
       </c>
       <c r="I20" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="J20" t="n">
         <v>4.33</v>
@@ -4068,7 +4068,7 @@
         <v>2</v>
       </c>
       <c r="V20" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="W20" t="n">
         <v>10</v>
@@ -4205,13 +4205,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H21" t="n">
         <v>4.75</v>
       </c>
       <c r="I21" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="J21" t="n">
         <v>6</v>
@@ -4223,10 +4223,10 @@
         <v>1.83</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="O21" t="n">
         <v>1.17</v>
@@ -4247,25 +4247,25 @@
         <v>3.5</v>
       </c>
       <c r="U21" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V21" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W21" t="n">
         <v>21</v>
       </c>
       <c r="X21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y21" t="n">
         <v>21</v>
       </c>
       <c r="Z21" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AA21" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AB21" t="n">
         <v>41</v>
@@ -4295,7 +4295,7 @@
         <v>9</v>
       </c>
       <c r="AK21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AL21" t="n">
         <v>11</v>
@@ -4304,7 +4304,7 @@
         <v>23</v>
       </c>
       <c r="AN21" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AO21" t="n">
         <v>34</v>
@@ -4334,7 +4334,7 @@
         <v>3.6</v>
       </c>
       <c r="AX21" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AY21" t="n">
         <v>17</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J2" t="n">
         <v>3.6</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L2" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
@@ -783,10 +783,10 @@
         <v>1.67</v>
       </c>
       <c r="S2" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U2" t="n">
         <v>1.95</v>
@@ -795,7 +795,7 @@
         <v>1.8</v>
       </c>
       <c r="W2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X2" t="n">
         <v>13</v>
@@ -810,25 +810,25 @@
         <v>26</v>
       </c>
       <c r="AB2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF2" t="n">
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AH2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI2" t="n">
         <v>11</v>
@@ -861,16 +861,16 @@
         <v>81</v>
       </c>
       <c r="AS2" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW2" t="n">
         <v>4.33</v>
@@ -885,13 +885,13 @@
         <v>51</v>
       </c>
       <c r="BA2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB2" t="n">
         <v>201</v>
       </c>
       <c r="BC2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD2" t="n">
         <v>151</v>
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H4" t="n">
         <v>2.75</v>
@@ -1120,13 +1120,13 @@
         <v>2.8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K4" t="n">
         <v>1.91</v>
       </c>
       <c r="L4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.11</v>
@@ -1141,10 +1141,10 @@
         <v>2.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R4" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S4" t="n">
         <v>1.57</v>
@@ -1153,19 +1153,19 @@
         <v>2.25</v>
       </c>
       <c r="U4" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="W4" t="n">
         <v>7</v>
       </c>
       <c r="X4" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y4" t="n">
         <v>12</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>11</v>
       </c>
       <c r="Z4" t="n">
         <v>29</v>
@@ -1177,10 +1177,10 @@
         <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE4" t="n">
         <v>17</v>
@@ -1189,7 +1189,7 @@
         <v>67</v>
       </c>
       <c r="AG4" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AH4" t="n">
         <v>7</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K5" t="n">
         <v>1.91</v>
@@ -1323,10 +1323,10 @@
         <v>2.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R5" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S5" t="n">
         <v>1.62</v>
@@ -1344,7 +1344,7 @@
         <v>5</v>
       </c>
       <c r="X5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y5" t="n">
         <v>9.5</v>
@@ -1419,7 +1419,7 @@
         <v>81</v>
       </c>
       <c r="AW5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX5" t="n">
         <v>29</v>
@@ -1675,22 +1675,22 @@
         <v>2.63</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R7" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S7" t="n">
         <v>1.44</v>
@@ -1839,16 +1839,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H8" t="n">
         <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J8" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K8" t="n">
         <v>1.95</v>
@@ -1857,10 +1857,10 @@
         <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.5</v>
@@ -1890,16 +1890,16 @@
         <v>6</v>
       </c>
       <c r="X8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y8" t="n">
         <v>10</v>
       </c>
       <c r="Z8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB8" t="n">
         <v>41</v>
@@ -1920,7 +1920,7 @@
         <v>201</v>
       </c>
       <c r="AH8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI8" t="n">
         <v>15</v>
@@ -1929,7 +1929,7 @@
         <v>13</v>
       </c>
       <c r="AK8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL8" t="n">
         <v>34</v>
@@ -1938,10 +1938,10 @@
         <v>41</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP8" t="n">
         <v>29</v>
@@ -1968,7 +1968,7 @@
         <v>5</v>
       </c>
       <c r="AX8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY8" t="n">
         <v>34</v>
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="H9" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="J9" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K9" t="n">
         <v>1.91</v>
       </c>
       <c r="L9" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="M9" t="n">
         <v>1.11</v>
@@ -2045,16 +2045,16 @@
         <v>5.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="P9" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R9" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S9" t="n">
         <v>1.6</v>
@@ -2072,16 +2072,16 @@
         <v>5.5</v>
       </c>
       <c r="X9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA9" t="n">
         <v>21</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>23</v>
       </c>
       <c r="AB9" t="n">
         <v>41</v>
@@ -2090,7 +2090,7 @@
         <v>6</v>
       </c>
       <c r="AD9" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
         <v>19</v>
@@ -2102,10 +2102,10 @@
         <v>201</v>
       </c>
       <c r="AH9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ9" t="n">
         <v>15</v>
@@ -2120,25 +2120,25 @@
         <v>51</v>
       </c>
       <c r="AN9" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP9" t="n">
         <v>29</v>
       </c>
       <c r="AQ9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR9" t="n">
         <v>81</v>
       </c>
       <c r="AS9" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU9" t="n">
         <v>9.5</v>
@@ -2150,7 +2150,7 @@
         <v>5.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY9" t="n">
         <v>41</v>
@@ -2159,7 +2159,7 @@
         <v>81</v>
       </c>
       <c r="BA9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB9" t="n">
         <v>351</v>
@@ -2221,10 +2221,10 @@
         <v>3.4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O10" t="n">
         <v>1.5</v>
@@ -2233,10 +2233,10 @@
         <v>2.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R10" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S10" t="n">
         <v>1.57</v>
@@ -2296,7 +2296,7 @@
         <v>26</v>
       </c>
       <c r="AL10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM10" t="n">
         <v>41</v>
@@ -2305,13 +2305,13 @@
         <v>4.75</v>
       </c>
       <c r="AO10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP10" t="n">
         <v>34</v>
       </c>
       <c r="AQ10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR10" t="n">
         <v>101</v>
@@ -2329,7 +2329,7 @@
         <v>67</v>
       </c>
       <c r="AW10" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX10" t="n">
         <v>15</v>
@@ -2344,7 +2344,7 @@
         <v>81</v>
       </c>
       <c r="BB10" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC10" t="n">
         <v>126</v>
@@ -2388,130 +2388,130 @@
         <v>1.75</v>
       </c>
       <c r="H11" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I11" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="J11" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="K11" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L11" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="O11" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P11" t="n">
-        <v>2.85</v>
+        <v>2.72</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.07</v>
+        <v>2.2</v>
       </c>
       <c r="R11" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="S11" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="T11" t="n">
-        <v>2.67</v>
+        <v>2.57</v>
       </c>
       <c r="U11" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="W11" t="n">
-        <v>6.1</v>
+        <v>5.6</v>
       </c>
       <c r="X11" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="Y11" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Z11" t="n">
         <v>14</v>
       </c>
       <c r="AA11" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AB11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AI11" t="n">
         <v>29</v>
       </c>
-      <c r="AC11" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AE11" t="n">
+      <c r="AJ11" t="n">
         <v>16.5</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>16</v>
       </c>
       <c r="AK11" t="n">
         <v>100</v>
       </c>
       <c r="AL11" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM11" t="n">
         <v>60</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AP11" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AQ11" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AR11" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AS11" t="n">
         <v>250</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.67</v>
+        <v>2.57</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AV11" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AW11" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AX11" t="n">
         <v>30</v>
@@ -2567,55 +2567,55 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="H12" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="I12" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J12" t="n">
         <v>3.25</v>
       </c>
       <c r="K12" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="L12" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="M12" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N12" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="O12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R12" t="n">
         <v>1.47</v>
       </c>
-      <c r="P12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="S12" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="T12" t="n">
         <v>2.37</v>
       </c>
-      <c r="R12" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.45</v>
-      </c>
       <c r="U12" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="V12" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="W12" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="X12" t="n">
         <v>12.5</v>
@@ -2627,88 +2627,88 @@
         <v>32</v>
       </c>
       <c r="AA12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB12" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AC12" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="AD12" t="n">
         <v>5.1</v>
       </c>
       <c r="AE12" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG12" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AH12" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="AI12" t="n">
         <v>16</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AK12" t="n">
         <v>45</v>
       </c>
       <c r="AL12" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AM12" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AN12" t="n">
         <v>4.45</v>
       </c>
       <c r="AO12" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AP12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ12" t="n">
         <v>70</v>
       </c>
       <c r="AR12" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AS12" t="n">
         <v>300</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="AU12" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AV12" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AW12" t="n">
         <v>5</v>
       </c>
       <c r="AX12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY12" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AZ12" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BA12" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BB12" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BC12" t="n">
         <v>51</v>
@@ -2943,16 +2943,16 @@
         <v>3.1</v>
       </c>
       <c r="K14" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L14" t="n">
         <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="O14" t="n">
         <v>1.44</v>
@@ -2967,25 +2967,25 @@
         <v>1.57</v>
       </c>
       <c r="S14" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T14" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U14" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V14" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W14" t="n">
         <v>6.5</v>
       </c>
       <c r="X14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y14" t="n">
         <v>10</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>9.5</v>
       </c>
       <c r="Z14" t="n">
         <v>21</v>
@@ -3003,13 +3003,13 @@
         <v>6</v>
       </c>
       <c r="AE14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF14" t="n">
         <v>67</v>
       </c>
       <c r="AG14" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AH14" t="n">
         <v>8</v>
@@ -3030,7 +3030,7 @@
         <v>41</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO14" t="n">
         <v>13</v>
@@ -3039,19 +3039,19 @@
         <v>26</v>
       </c>
       <c r="AQ14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR14" t="n">
         <v>81</v>
       </c>
       <c r="AS14" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV14" t="n">
         <v>67</v>
@@ -3060,7 +3060,7 @@
         <v>5</v>
       </c>
       <c r="AX14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY14" t="n">
         <v>34</v>
@@ -3072,7 +3072,7 @@
         <v>101</v>
       </c>
       <c r="BB14" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC14" t="n">
         <v>126</v>
@@ -3113,28 +3113,28 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="H15" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="J15" t="n">
         <v>5</v>
       </c>
       <c r="K15" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L15" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O15" t="n">
         <v>1.4</v>
@@ -3161,7 +3161,7 @@
         <v>1.67</v>
       </c>
       <c r="W15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X15" t="n">
         <v>21</v>
@@ -3179,7 +3179,7 @@
         <v>51</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD15" t="n">
         <v>6.5</v>
@@ -3224,7 +3224,7 @@
         <v>101</v>
       </c>
       <c r="AR15" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AS15" t="n">
         <v>351</v>
@@ -3239,7 +3239,7 @@
         <v>67</v>
       </c>
       <c r="AW15" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AX15" t="n">
         <v>10</v>
@@ -3248,7 +3248,7 @@
         <v>23</v>
       </c>
       <c r="AZ15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA15" t="n">
         <v>67</v>
@@ -3295,16 +3295,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J16" t="n">
         <v>3.4</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.25</v>
       </c>
       <c r="K16" t="n">
         <v>2.38</v>
@@ -3319,16 +3319,16 @@
         <v>15</v>
       </c>
       <c r="O16" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P16" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R16" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S16" t="n">
         <v>1.3</v>
@@ -3358,7 +3358,7 @@
         <v>21</v>
       </c>
       <c r="AB16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC16" t="n">
         <v>15</v>
@@ -3385,7 +3385,7 @@
         <v>9.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL16" t="n">
         <v>17</v>
@@ -3421,7 +3421,7 @@
         <v>41</v>
       </c>
       <c r="AW16" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX16" t="n">
         <v>12</v>
@@ -3677,10 +3677,10 @@
         <v>5.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O18" t="n">
         <v>1.25</v>
@@ -3689,10 +3689,10 @@
         <v>3.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R18" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S18" t="n">
         <v>1.36</v>
@@ -3841,28 +3841,28 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="H19" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I19" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J19" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K19" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L19" t="n">
         <v>6</v>
       </c>
       <c r="M19" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O19" t="n">
         <v>1.22</v>
@@ -3901,16 +3901,16 @@
         <v>9.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB19" t="n">
         <v>29</v>
       </c>
       <c r="AC19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD19" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE19" t="n">
         <v>21</v>
@@ -3937,7 +3937,7 @@
         <v>41</v>
       </c>
       <c r="AM19" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN19" t="n">
         <v>3.4</v>
@@ -3949,7 +3949,7 @@
         <v>19</v>
       </c>
       <c r="AQ19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR19" t="n">
         <v>41</v>
@@ -4205,22 +4205,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="H21" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I21" t="n">
         <v>1.42</v>
       </c>
       <c r="J21" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="K21" t="n">
         <v>2.5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="M21" t="n">
         <v>1.01</v>
@@ -4274,7 +4274,7 @@
         <v>15</v>
       </c>
       <c r="AD21" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE21" t="n">
         <v>17</v>
@@ -4283,13 +4283,13 @@
         <v>51</v>
       </c>
       <c r="AG21" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AH21" t="n">
         <v>8.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AJ21" t="n">
         <v>9</v>
@@ -4307,7 +4307,7 @@
         <v>8</v>
       </c>
       <c r="AO21" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP21" t="n">
         <v>34</v>
@@ -4316,10 +4316,10 @@
         <v>101</v>
       </c>
       <c r="AR21" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS21" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AT21" t="n">
         <v>3.5</v>
@@ -4340,7 +4340,7 @@
         <v>17</v>
       </c>
       <c r="AZ21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA21" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD4"/>
+  <dimension ref="A1:BB2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -704,21 +704,11 @@
           <t>Odd_CS_2-3_HT</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-3_HT</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_4-4_HT</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21pBZo3B</t>
+          <t>OWn1GxRa</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,537 +718,167 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>00:05</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>INDIA - ISL</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>Kerala Blasters</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Cruz Azul</t>
+          <t>Hyderabad</t>
         </is>
       </c>
       <c r="G2" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H2" t="n">
         <v>4.5</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N2" t="n">
+        <v>17</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2</v>
+      </c>
+      <c r="W2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN2" t="n">
         <v>3.6</v>
       </c>
-      <c r="I2" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="J2" t="n">
-        <v>5</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N2" t="n">
-        <v>10</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W2" t="n">
-        <v>10</v>
-      </c>
-      <c r="X2" t="n">
+      <c r="AO2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>21</v>
       </c>
-      <c r="Y2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z2" t="n">
+      <c r="AR2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV2" t="n">
         <v>51</v>
       </c>
-      <c r="AA2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>451</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI2" t="n">
+      <c r="AW2" t="n">
         <v>7.5</v>
       </c>
-      <c r="AJ2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ2" t="n">
+      <c r="AX2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ2" t="n">
         <v>101</v>
       </c>
-      <c r="AR2" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>34</v>
-      </c>
       <c r="BA2" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB2" t="n">
         <v>201</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>fys3y8Yb</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>07/11/2024</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>00:06</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>MEXICO - LIGA MX</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Juarez</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Club Tijuana</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>3</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N3" t="n">
-        <v>15</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W3" t="n">
-        <v>13</v>
-      </c>
-      <c r="X3" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>lzAPiPhL</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>07/11/2024</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>00:05</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Zacatecas Mineros</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Leones Negros</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N4" t="n">
-        <v>10</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="W4" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="X4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>450</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>35</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>45</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>75</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>25</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>100</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>120</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>300</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB2"/>
+  <dimension ref="A1:BD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -704,11 +704,21 @@
           <t>Odd_CS_2-3_HT</t>
         </is>
       </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-3_HT</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_4-4_HT</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OWn1GxRa</t>
+          <t>YyDJubM9</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -718,131 +728,131 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>INDIA - ISL</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Kerala Blasters</t>
+          <t>Al Qadisiya</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Hyderabad</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H2" t="n">
         <v>4.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N2" t="n">
+        <v>9</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R2" t="n">
         <v>2</v>
       </c>
-      <c r="K2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N2" t="n">
-        <v>17</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2.35</v>
-      </c>
       <c r="S2" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="T2" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U2" t="n">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="W2" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="X2" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AA2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC2" t="n">
         <v>12</v>
       </c>
-      <c r="AB2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>17</v>
-      </c>
       <c r="AD2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE2" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1500</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL2" t="n">
         <v>51</v>
       </c>
-      <c r="AG2" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK2" t="n">
+      <c r="AM2" t="n">
         <v>51</v>
       </c>
-      <c r="AL2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>41</v>
-      </c>
       <c r="AN2" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ2" t="n">
         <v>21</v>
@@ -851,34 +861,40 @@
         <v>41</v>
       </c>
       <c r="AS2" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AU2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW2" t="n">
         <v>8</v>
       </c>
-      <c r="AV2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AX2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY2" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA2" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BB2" t="n">
-        <v>201</v>
+        <v>500</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H2" t="n">
         <v>4.5</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J2" t="n">
         <v>1.91</v>
@@ -765,10 +765,10 @@
         <v>6.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O2" t="n">
         <v>1.25</v>
@@ -804,7 +804,7 @@
         <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA2" t="n">
         <v>13</v>
@@ -813,7 +813,7 @@
         <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD2" t="n">
         <v>9</v>
@@ -837,7 +837,7 @@
         <v>21</v>
       </c>
       <c r="AK2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL2" t="n">
         <v>51</v>
@@ -855,7 +855,7 @@
         <v>19</v>
       </c>
       <c r="AQ2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR2" t="n">
         <v>41</v>
@@ -873,16 +873,16 @@
         <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA2" t="n">
         <v>151</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD2"/>
+  <dimension ref="A1:BD5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,182 +718,728 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>boe4DyiR</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>07/11/2024</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>EGYPT - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Haras El Hodood</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L2" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="W2" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="X2" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>32</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>30</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>35</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>200</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>250</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>450</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>jLidFcME</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>07/11/2024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>EGYPT - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Ghazl El Mahallah</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>El Gaish</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W3" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="X3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>45</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>90</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>150</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>24</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>75</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>120</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>350</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>YyDJubM9</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>07/11/2024</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>11:30</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Al Qadisiya</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Al Feiha</t>
         </is>
       </c>
-      <c r="G2" t="n">
+      <c r="G4" t="n">
         <v>1.4</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H4" t="n">
         <v>4.5</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I4" t="n">
         <v>6.25</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J4" t="n">
         <v>1.91</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K4" t="n">
         <v>2.3</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L4" t="n">
         <v>6.5</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M4" t="n">
         <v>1.02</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N4" t="n">
         <v>11</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O4" t="n">
         <v>1.25</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P4" t="n">
         <v>3.75</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q4" t="n">
         <v>1.8</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R4" t="n">
         <v>2</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S4" t="n">
         <v>1.36</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T4" t="n">
         <v>3</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U4" t="n">
         <v>2.1</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V4" t="n">
         <v>1.67</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W4" t="n">
         <v>6.5</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X4" t="n">
         <v>6.5</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y4" t="n">
         <v>9</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z4" t="n">
         <v>9</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA4" t="n">
         <v>13</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB4" t="n">
         <v>29</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC4" t="n">
         <v>11</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD4" t="n">
         <v>9</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE4" t="n">
         <v>21</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF4" t="n">
         <v>67</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG4" t="n">
         <v>1500</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH4" t="n">
         <v>15</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI4" t="n">
         <v>34</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ4" t="n">
         <v>21</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK4" t="n">
         <v>81</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL4" t="n">
         <v>51</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM4" t="n">
         <v>51</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN4" t="n">
         <v>3.4</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO4" t="n">
         <v>7</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP4" t="n">
         <v>19</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ4" t="n">
         <v>19</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR4" t="n">
         <v>41</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS4" t="n">
         <v>151</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT4" t="n">
         <v>3</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU4" t="n">
         <v>9.5</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV4" t="n">
         <v>67</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW4" t="n">
         <v>8.5</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AX4" t="n">
         <v>41</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="AY4" t="n">
         <v>41</v>
       </c>
-      <c r="AZ2" t="n">
+      <c r="AZ4" t="n">
         <v>151</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BA4" t="n">
         <v>151</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BB4" t="n">
         <v>500</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BC4" t="n">
         <v>81</v>
       </c>
-      <c r="BD2" t="n">
+      <c r="BD4" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>8fR1hy6F</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>07/11/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Al Kholood</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Al Shabab</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N5" t="n">
+        <v>8</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W5" t="n">
+        <v>11</v>
+      </c>
+      <c r="X5" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD5" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD5"/>
+  <dimension ref="A1:BD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>boe4DyiR</t>
+          <t>UDPaReIr</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,167 +728,167 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>CSKA 1948 Sofia</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Haras El Hodood</t>
+          <t>CSKA Sofia</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.75</v>
+        <v>4.2</v>
       </c>
       <c r="H2" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>5.1</v>
+        <v>1.9</v>
       </c>
       <c r="J2" t="n">
-        <v>2.32</v>
+        <v>4.75</v>
       </c>
       <c r="K2" t="n">
         <v>2.05</v>
       </c>
       <c r="L2" t="n">
-        <v>5.3</v>
+        <v>2.6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>6.1</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P2" t="n">
-        <v>2.72</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
         <v>2.2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S2" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="T2" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="U2" t="n">
         <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="W2" t="n">
-        <v>5.6</v>
+        <v>10</v>
       </c>
       <c r="X2" t="n">
-        <v>7.4</v>
+        <v>21</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.25</v>
+        <v>15</v>
       </c>
       <c r="Z2" t="n">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="AA2" t="n">
-        <v>15.5</v>
+        <v>41</v>
       </c>
       <c r="AB2" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.1</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="AE2" t="n">
         <v>17</v>
       </c>
       <c r="AF2" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>900</v>
+        <v>351</v>
       </c>
       <c r="AH2" t="n">
-        <v>11.5</v>
+        <v>6.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="AJ2" t="n">
-        <v>16.5</v>
+        <v>9</v>
       </c>
       <c r="AK2" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="AL2" t="n">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="AM2" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="AO2" t="n">
-        <v>8.75</v>
+        <v>23</v>
       </c>
       <c r="AP2" t="n">
-        <v>18.5</v>
+        <v>34</v>
       </c>
       <c r="AQ2" t="n">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="AR2" t="n">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="AS2" t="n">
-        <v>250</v>
+        <v>301</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AU2" t="n">
-        <v>7.4</v>
+        <v>8.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>6.7</v>
+        <v>3.75</v>
       </c>
       <c r="AX2" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="AY2" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="AZ2" t="n">
-        <v>200</v>
+        <v>41</v>
       </c>
       <c r="BA2" t="n">
-        <v>250</v>
+        <v>51</v>
       </c>
       <c r="BB2" t="n">
-        <v>450</v>
+        <v>201</v>
       </c>
       <c r="BC2" t="n">
         <v>51</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jLidFcME</t>
+          <t>boe4DyiR</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -920,157 +920,157 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Ghazl El Mahallah</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>El Gaish</t>
+          <t>Haras El Hodood</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.05</v>
+        <v>1.75</v>
       </c>
       <c r="H3" t="n">
-        <v>2.62</v>
+        <v>3.15</v>
       </c>
       <c r="I3" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.72</v>
       </c>
-      <c r="J3" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N3" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.42</v>
-      </c>
       <c r="Q3" t="n">
-        <v>2.42</v>
+        <v>2.2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="S3" t="n">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="T3" t="n">
-        <v>2.35</v>
+        <v>2.57</v>
       </c>
       <c r="U3" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="W3" t="n">
-        <v>7.3</v>
+        <v>5.6</v>
       </c>
       <c r="X3" t="n">
-        <v>15</v>
+        <v>7.4</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.75</v>
+        <v>8.25</v>
       </c>
       <c r="Z3" t="n">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="AA3" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AB3" t="n">
         <v>32</v>
       </c>
-      <c r="AB3" t="n">
-        <v>45</v>
-      </c>
       <c r="AC3" t="n">
-        <v>5.2</v>
+        <v>6.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="AE3" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AF3" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AG3" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="AH3" t="n">
-        <v>6.8</v>
+        <v>11.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AJ3" t="n">
-        <v>10</v>
+        <v>16.5</v>
       </c>
       <c r="AK3" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>32</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>30</v>
+      </c>
+      <c r="AY3" t="n">
         <v>35</v>
       </c>
-      <c r="AL3" t="n">
-        <v>27</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>40</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>18</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>90</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>150</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>350</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>24</v>
-      </c>
       <c r="AZ3" t="n">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="BA3" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="BB3" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="BC3" t="n">
         <v>51</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>YyDJubM9</t>
+          <t>jLidFcME</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,179 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al Qadisiya</t>
+          <t>Ghazl El Mahallah</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>El Gaish</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.4</v>
+        <v>3.05</v>
       </c>
       <c r="H4" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W4" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="X4" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>45</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>90</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>150</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW4" t="n">
         <v>4.5</v>
       </c>
-      <c r="I4" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N4" t="n">
-        <v>11</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>1500</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL4" t="n">
+      <c r="AX4" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>75</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>120</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>350</v>
+      </c>
+      <c r="BC4" t="n">
         <v>51</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="BD4" t="n">
         <v>51</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>151</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>500</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>8fR1hy6F</t>
+          <t>YyDJubM9</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1284,162 +1284,344 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al Kholood</t>
+          <t>Al Qadisiya</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N5" t="n">
+        <v>11</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P5" t="n">
         <v>3.75</v>
       </c>
-      <c r="H5" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="Q5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3</v>
+      </c>
+      <c r="U5" t="n">
         <v>2.1</v>
       </c>
-      <c r="L5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N5" t="n">
-        <v>8</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.83</v>
-      </c>
       <c r="V5" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="W5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC5" t="n">
         <v>11</v>
       </c>
-      <c r="X5" t="n">
+      <c r="AD5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>1500</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP5" t="n">
         <v>19</v>
       </c>
-      <c r="Y5" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z5" t="n">
+      <c r="AQ5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR5" t="n">
         <v>41</v>
       </c>
-      <c r="AA5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB5" t="n">
+      <c r="AS5" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AX5" t="n">
         <v>41</v>
       </c>
-      <c r="AC5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>10</v>
-      </c>
       <c r="AY5" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AZ5" t="n">
-        <v>34</v>
+        <v>151</v>
       </c>
       <c r="BA5" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BB5" t="n">
-        <v>151</v>
+        <v>500</v>
       </c>
       <c r="BC5" t="n">
         <v>81</v>
       </c>
       <c r="BD5" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>8fR1hy6F</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>07/11/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Al Kholood</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Al Shabab</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N6" t="n">
+        <v>8</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W6" t="n">
+        <v>11</v>
+      </c>
+      <c r="X6" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD6" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
@@ -777,10 +777,10 @@
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R2" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -1493,10 +1493,10 @@
         <v>2.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.3</v>
@@ -1547,7 +1547,7 @@
         <v>6.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
         <v>51</v>
@@ -1574,7 +1574,7 @@
         <v>29</v>
       </c>
       <c r="AN6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO6" t="n">
         <v>21</v>
@@ -1595,7 +1595,7 @@
         <v>2.75</v>
       </c>
       <c r="AU6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV6" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD6"/>
+  <dimension ref="A1:BD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1625,6 +1625,188 @@
         <v>81</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>O6ibYFEq</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>07/11/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Al Orubah</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>6</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W7" t="n">
+        <v>21</v>
+      </c>
+      <c r="X7" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
@@ -929,19 +929,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="H3" t="n">
         <v>3.15</v>
       </c>
       <c r="I3" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="K3" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="L3" t="n">
         <v>5.3</v>
@@ -968,25 +968,25 @@
         <v>1.45</v>
       </c>
       <c r="T3" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V3" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="W3" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="X3" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="Y3" t="n">
         <v>8.25</v>
       </c>
       <c r="Z3" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AA3" t="n">
         <v>15.5</v>
@@ -1010,10 +1010,10 @@
         <v>900</v>
       </c>
       <c r="AH3" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AI3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ3" t="n">
         <v>16.5</v>
@@ -1025,10 +1025,10 @@
         <v>60</v>
       </c>
       <c r="AM3" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="AO3" t="n">
         <v>8.75</v>
@@ -1046,22 +1046,22 @@
         <v>250</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="AU3" t="n">
         <v>7.4</v>
       </c>
       <c r="AV3" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AW3" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AX3" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AY3" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AZ3" t="n">
         <v>200</v>
@@ -1070,7 +1070,7 @@
         <v>250</v>
       </c>
       <c r="BB3" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BC3" t="n">
         <v>51</v>
@@ -1293,94 +1293,94 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="H5" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="K5" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L5" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O5" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R5" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="S5" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T5" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W5" t="n">
         <v>6.5</v>
       </c>
       <c r="X5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y5" t="n">
         <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB5" t="n">
         <v>29</v>
       </c>
       <c r="AC5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AD5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG5" t="n">
         <v>1500</v>
       </c>
       <c r="AH5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK5" t="n">
         <v>81</v>
@@ -1392,16 +1392,16 @@
         <v>51</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AP5" t="n">
         <v>19</v>
       </c>
       <c r="AQ5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR5" t="n">
         <v>41</v>
@@ -1410,16 +1410,16 @@
         <v>151</v>
       </c>
       <c r="AT5" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV5" t="n">
         <v>67</v>
       </c>
       <c r="AW5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AX5" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="H3" t="n">
         <v>3.15</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="J3" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="K3" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="L3" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="M3" t="n">
         <v>1.09</v>
@@ -956,10 +956,10 @@
         <v>1.4</v>
       </c>
       <c r="P3" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R3" t="n">
         <v>1.62</v>
@@ -968,7 +968,7 @@
         <v>1.45</v>
       </c>
       <c r="T3" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="U3" t="n">
         <v>1.98</v>
@@ -977,19 +977,19 @@
         <v>1.75</v>
       </c>
       <c r="W3" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="X3" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="Y3" t="n">
         <v>8.25</v>
       </c>
       <c r="Z3" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AB3" t="n">
         <v>32</v>
@@ -998,10 +998,10 @@
         <v>6.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF3" t="n">
         <v>100</v>
@@ -1010,28 +1010,28 @@
         <v>900</v>
       </c>
       <c r="AH3" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AI3" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AJ3" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AL3" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM3" t="n">
         <v>60</v>
       </c>
-      <c r="AM3" t="n">
-        <v>65</v>
-      </c>
       <c r="AN3" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="AO3" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AP3" t="n">
         <v>18.5</v>
@@ -1046,25 +1046,25 @@
         <v>250</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="AU3" t="n">
         <v>7.4</v>
       </c>
       <c r="AV3" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AW3" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="AX3" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AY3" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AZ3" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BA3" t="n">
         <v>250</v>
@@ -1308,13 +1308,13 @@
         <v>2.4</v>
       </c>
       <c r="L5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O5" t="n">
         <v>1.22</v>
@@ -1335,16 +1335,16 @@
         <v>3.25</v>
       </c>
       <c r="U5" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W5" t="n">
+        <v>7</v>
+      </c>
+      <c r="X5" t="n">
         <v>6.5</v>
-      </c>
-      <c r="X5" t="n">
-        <v>6</v>
       </c>
       <c r="Y5" t="n">
         <v>9</v>
@@ -1368,7 +1368,7 @@
         <v>23</v>
       </c>
       <c r="AF5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG5" t="n">
         <v>1500</v>
@@ -1380,7 +1380,7 @@
         <v>41</v>
       </c>
       <c r="AJ5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK5" t="n">
         <v>81</v>
@@ -1413,7 +1413,7 @@
         <v>3.25</v>
       </c>
       <c r="AU5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV5" t="n">
         <v>67</v>
@@ -1493,10 +1493,10 @@
         <v>2.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
         <v>1.3</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD7"/>
+  <dimension ref="A1:BD9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>YyDJubM9</t>
+          <t>APE9ifU7</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al Qadisiya</t>
+          <t>ZED</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Al Ahly</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.33</v>
+        <v>5.5</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="I5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="W5" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>110</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>25</v>
+      </c>
+      <c r="AN5" t="n">
         <v>7</v>
       </c>
-      <c r="J5" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>7</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N5" t="n">
-        <v>10</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W5" t="n">
-        <v>7</v>
-      </c>
-      <c r="X5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>1500</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL5" t="n">
+      <c r="AO5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>37</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>200</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>250</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>75</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>25</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>55</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC5" t="n">
         <v>51</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="BD5" t="n">
         <v>51</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>151</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>500</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>8fR1hy6F</t>
+          <t>v12EbqCc</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,65 +1456,65 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al Kholood</t>
+          <t>Ruch Chorzow</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Chrobry Glogow</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N6" t="n">
+        <v>13</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P6" t="n">
         <v>3.75</v>
       </c>
-      <c r="H6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N6" t="n">
-        <v>8</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.4</v>
-      </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="R6" t="n">
-        <v>1.8</v>
+        <v>2.03</v>
       </c>
       <c r="S6" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T6" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U6" t="n">
         <v>1.83</v>
@@ -1523,100 +1523,100 @@
         <v>1.83</v>
       </c>
       <c r="W6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC6" t="n">
         <v>11</v>
       </c>
-      <c r="X6" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AD6" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF6" t="n">
         <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>700</v>
+        <v>251</v>
       </c>
       <c r="AH6" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AI6" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AK6" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="AL6" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AM6" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AN6" t="n">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO6" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="AP6" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AQ6" t="n">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="AR6" t="n">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AS6" t="n">
-        <v>300</v>
+        <v>126</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV6" t="n">
         <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX6" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="AY6" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AZ6" t="n">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="BA6" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BB6" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BC6" t="n">
         <v>81</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>O6ibYFEq</t>
+          <t>YyDJubM9</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1648,162 +1648,526 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al Orubah</t>
+          <t>Al Qadisiya</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>6.5</v>
+        <v>1.3</v>
       </c>
       <c r="H7" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="I7" t="n">
-        <v>1.4</v>
+        <v>7.5</v>
       </c>
       <c r="J7" t="n">
-        <v>6</v>
+        <v>1.73</v>
       </c>
       <c r="K7" t="n">
         <v>2.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.83</v>
+        <v>7.5</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="O7" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="P7" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="R7" t="n">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="S7" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="T7" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U7" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="W7" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="X7" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI7" t="n">
         <v>41</v>
       </c>
-      <c r="Y7" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z7" t="n">
+      <c r="AJ7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV7" t="n">
         <v>67</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AW7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AX7" t="n">
         <v>41</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AY7" t="n">
         <v>41</v>
       </c>
-      <c r="AC7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG7" t="n">
+      <c r="AZ7" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB7" t="n">
         <v>500</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>101</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>400</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>17</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>101</v>
       </c>
       <c r="BC7" t="n">
         <v>81</v>
       </c>
       <c r="BD7" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>8fR1hy6F</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>07/11/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Al Kholood</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Al Shabab</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N8" t="n">
+        <v>8</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W8" t="n">
+        <v>11</v>
+      </c>
+      <c r="X8" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>O6ibYFEq</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>07/11/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Al Orubah</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J9" t="n">
+        <v>6</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W9" t="n">
+        <v>21</v>
+      </c>
+      <c r="X9" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD9" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
@@ -929,19 +929,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="H3" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="J3" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="K3" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="L3" t="n">
         <v>4.9</v>
@@ -950,7 +950,7 @@
         <v>1.09</v>
       </c>
       <c r="N3" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
         <v>1.4</v>
@@ -971,13 +971,13 @@
         <v>2.57</v>
       </c>
       <c r="U3" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="V3" t="n">
         <v>1.75</v>
       </c>
       <c r="W3" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="X3" t="n">
         <v>8</v>
@@ -989,46 +989,46 @@
         <v>15.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AB3" t="n">
         <v>32</v>
       </c>
       <c r="AC3" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF3" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AG3" t="n">
         <v>900</v>
       </c>
       <c r="AH3" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AI3" t="n">
         <v>25</v>
       </c>
       <c r="AJ3" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AK3" t="n">
         <v>90</v>
       </c>
       <c r="AL3" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM3" t="n">
         <v>55</v>
       </c>
-      <c r="AM3" t="n">
-        <v>60</v>
-      </c>
       <c r="AN3" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="AO3" t="n">
         <v>9.25</v>
@@ -1037,10 +1037,10 @@
         <v>18.5</v>
       </c>
       <c r="AQ3" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AR3" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AS3" t="n">
         <v>250</v>
@@ -1049,7 +1049,7 @@
         <v>2.57</v>
       </c>
       <c r="AU3" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AV3" t="n">
         <v>70</v>
@@ -1058,19 +1058,19 @@
         <v>6.3</v>
       </c>
       <c r="AX3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY3" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AZ3" t="n">
         <v>175</v>
       </c>
       <c r="BA3" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BB3" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BC3" t="n">
         <v>51</v>
@@ -1114,7 +1114,7 @@
         <v>3.05</v>
       </c>
       <c r="H4" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="I4" t="n">
         <v>2.72</v>
@@ -1153,10 +1153,10 @@
         <v>2.35</v>
       </c>
       <c r="U4" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="V4" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="W4" t="n">
         <v>7.3</v>
@@ -1180,7 +1180,7 @@
         <v>5.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AE4" t="n">
         <v>14.5</v>
@@ -1189,10 +1189,10 @@
         <v>80</v>
       </c>
       <c r="AG4" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AH4" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AI4" t="n">
         <v>13</v>
@@ -1219,7 +1219,7 @@
         <v>26</v>
       </c>
       <c r="AQ4" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AR4" t="n">
         <v>150</v>
@@ -1231,7 +1231,7 @@
         <v>2.32</v>
       </c>
       <c r="AU4" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AV4" t="n">
         <v>65</v>
@@ -1839,28 +1839,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K8" t="n">
         <v>2.1</v>
       </c>
       <c r="L8" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.3</v>
@@ -1887,13 +1887,13 @@
         <v>1.83</v>
       </c>
       <c r="W8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z8" t="n">
         <v>41</v>
@@ -1905,13 +1905,13 @@
         <v>41</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF8" t="n">
         <v>51</v>
@@ -1923,7 +1923,7 @@
         <v>7</v>
       </c>
       <c r="AI8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ8" t="n">
         <v>9</v>
@@ -1932,22 +1932,22 @@
         <v>15</v>
       </c>
       <c r="AL8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM8" t="n">
         <v>29</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP8" t="n">
         <v>29</v>
       </c>
       <c r="AQ8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR8" t="n">
         <v>101</v>
@@ -1959,22 +1959,22 @@
         <v>2.75</v>
       </c>
       <c r="AU8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AX8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AY8" t="n">
         <v>21</v>
       </c>
       <c r="AZ8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA8" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I3" t="n">
-        <v>4.55</v>
+        <v>4.75</v>
       </c>
       <c r="J3" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="K3" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="L3" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="M3" t="n">
         <v>1.09</v>
@@ -953,10 +953,10 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="P3" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="Q3" t="n">
         <v>2.22</v>
@@ -971,25 +971,25 @@
         <v>2.57</v>
       </c>
       <c r="U3" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="V3" t="n">
         <v>1.75</v>
       </c>
       <c r="W3" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="X3" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="Y3" t="n">
         <v>8.25</v>
       </c>
       <c r="Z3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA3" t="n">
         <v>15.5</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>16.5</v>
       </c>
       <c r="AB3" t="n">
         <v>32</v>
@@ -998,49 +998,49 @@
         <v>6</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AE3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF3" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AG3" t="n">
         <v>900</v>
       </c>
       <c r="AH3" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AI3" t="n">
         <v>25</v>
       </c>
       <c r="AJ3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK3" t="n">
         <v>90</v>
       </c>
       <c r="AL3" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AM3" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="AO3" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AP3" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AQ3" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AR3" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AS3" t="n">
         <v>250</v>
@@ -1049,28 +1049,28 @@
         <v>2.57</v>
       </c>
       <c r="AU3" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AW3" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AX3" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AY3" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AZ3" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BA3" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BB3" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BC3" t="n">
         <v>51</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="I4" t="n">
-        <v>2.72</v>
+        <v>2.65</v>
       </c>
       <c r="J4" t="n">
         <v>3.7</v>
@@ -1126,7 +1126,7 @@
         <v>1.85</v>
       </c>
       <c r="L4" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="M4" t="n">
         <v>1.13</v>
@@ -1159,13 +1159,13 @@
         <v>1.78</v>
       </c>
       <c r="W4" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X4" t="n">
         <v>15</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="Z4" t="n">
         <v>45</v>
@@ -1180,37 +1180,37 @@
         <v>5.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AE4" t="n">
         <v>14.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AG4" t="n">
         <v>800</v>
       </c>
       <c r="AH4" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AI4" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AJ4" t="n">
         <v>10</v>
       </c>
       <c r="AK4" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AL4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM4" t="n">
         <v>40</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="AO4" t="n">
         <v>18</v>
@@ -1231,16 +1231,16 @@
         <v>2.32</v>
       </c>
       <c r="AU4" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AV4" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="AX4" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AY4" t="n">
         <v>24</v>
@@ -1302,13 +1302,13 @@
         <v>1.57</v>
       </c>
       <c r="J5" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="K5" t="n">
         <v>2.18</v>
       </c>
       <c r="L5" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
@@ -1317,28 +1317,28 @@
         <v>7.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P5" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="R5" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S5" t="n">
         <v>1.39</v>
       </c>
       <c r="T5" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="U5" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V5" t="n">
         <v>1.83</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.87</v>
       </c>
       <c r="W5" t="n">
         <v>14.5</v>
@@ -1350,7 +1350,7 @@
         <v>17</v>
       </c>
       <c r="Z5" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AA5" t="n">
         <v>55</v>
@@ -1362,58 +1362,58 @@
         <v>7.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AE5" t="n">
         <v>16.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG5" t="n">
         <v>600</v>
       </c>
       <c r="AH5" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AI5" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AJ5" t="n">
         <v>8</v>
       </c>
       <c r="AK5" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AL5" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AM5" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AN5" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AO5" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AP5" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AQ5" t="n">
         <v>200</v>
       </c>
       <c r="AR5" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AS5" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="AU5" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AV5" t="n">
         <v>75</v>
@@ -1422,16 +1422,16 @@
         <v>3.4</v>
       </c>
       <c r="AX5" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AY5" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AZ5" t="n">
         <v>25</v>
       </c>
       <c r="BA5" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BB5" t="n">
         <v>250</v>
@@ -1687,10 +1687,10 @@
         <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R7" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S7" t="n">
         <v>1.33</v>
@@ -1839,16 +1839,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="H8" t="n">
         <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="J8" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K8" t="n">
         <v>2.1</v>
@@ -1857,22 +1857,22 @@
         <v>2.4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O8" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R8" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S8" t="n">
         <v>1.4</v>
@@ -1911,7 +1911,7 @@
         <v>7</v>
       </c>
       <c r="AE8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF8" t="n">
         <v>51</v>
@@ -1920,10 +1920,10 @@
         <v>700</v>
       </c>
       <c r="AH8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ8" t="n">
         <v>9</v>
@@ -1935,19 +1935,19 @@
         <v>15</v>
       </c>
       <c r="AM8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN8" t="n">
         <v>6</v>
       </c>
       <c r="AO8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP8" t="n">
         <v>29</v>
       </c>
       <c r="AQ8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR8" t="n">
         <v>101</v>
@@ -1959,22 +1959,22 @@
         <v>2.75</v>
       </c>
       <c r="AU8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AX8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AY8" t="n">
         <v>21</v>
       </c>
       <c r="AZ8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA8" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD9"/>
+  <dimension ref="A1:BD8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -759,7 +759,7 @@
         <v>4.75</v>
       </c>
       <c r="K2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L2" t="n">
         <v>2.6</v>
@@ -789,13 +789,13 @@
         <v>2.63</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V2" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X2" t="n">
         <v>21</v>
@@ -813,7 +813,7 @@
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD2" t="n">
         <v>6.5</v>
@@ -843,7 +843,7 @@
         <v>17</v>
       </c>
       <c r="AM2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN2" t="n">
         <v>6</v>
@@ -858,10 +858,10 @@
         <v>81</v>
       </c>
       <c r="AR2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS2" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT2" t="n">
         <v>2.63</v>
@@ -876,13 +876,13 @@
         <v>3.75</v>
       </c>
       <c r="AX2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY2" t="n">
         <v>23</v>
       </c>
       <c r="AZ2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA2" t="n">
         <v>51</v>
@@ -929,25 +929,25 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="H3" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="I3" t="n">
-        <v>4.75</v>
+        <v>4.55</v>
       </c>
       <c r="J3" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="K3" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="M3" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
         <v>6</v>
@@ -959,19 +959,19 @@
         <v>2.67</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="R3" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S3" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="T3" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="U3" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="V3" t="n">
         <v>1.75</v>
@@ -980,16 +980,16 @@
         <v>5.9</v>
       </c>
       <c r="X3" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="Y3" t="n">
         <v>8.25</v>
       </c>
       <c r="Z3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AA3" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AB3" t="n">
         <v>32</v>
@@ -998,13 +998,13 @@
         <v>6</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AG3" t="n">
         <v>900</v>
@@ -1016,61 +1016,61 @@
         <v>25</v>
       </c>
       <c r="AJ3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK3" t="n">
         <v>90</v>
       </c>
       <c r="AL3" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM3" t="n">
         <v>60</v>
       </c>
-      <c r="AM3" t="n">
-        <v>65</v>
-      </c>
       <c r="AN3" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="AO3" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="AP3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ3" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AR3" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AS3" t="n">
         <v>250</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="AU3" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AV3" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AW3" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AX3" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AY3" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AZ3" t="n">
+        <v>175</v>
+      </c>
+      <c r="BA3" t="n">
         <v>200</v>
       </c>
-      <c r="BA3" t="n">
-        <v>250</v>
-      </c>
       <c r="BB3" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BC3" t="n">
         <v>51</v>
@@ -1114,13 +1114,13 @@
         <v>3.1</v>
       </c>
       <c r="H4" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="I4" t="n">
         <v>2.62</v>
       </c>
-      <c r="I4" t="n">
-        <v>2.65</v>
-      </c>
       <c r="J4" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K4" t="n">
         <v>1.85</v>
@@ -1138,13 +1138,13 @@
         <v>1.5</v>
       </c>
       <c r="P4" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="R4" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S4" t="n">
         <v>1.55</v>
@@ -1153,13 +1153,13 @@
         <v>2.35</v>
       </c>
       <c r="U4" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="V4" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="W4" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X4" t="n">
         <v>15</v>
@@ -1183,19 +1183,19 @@
         <v>5.2</v>
       </c>
       <c r="AE4" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF4" t="n">
         <v>90</v>
       </c>
       <c r="AG4" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AH4" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AJ4" t="n">
         <v>10</v>
@@ -1213,10 +1213,10 @@
         <v>4.9</v>
       </c>
       <c r="AO4" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AP4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ4" t="n">
         <v>100</v>
@@ -1225,19 +1225,19 @@
         <v>150</v>
       </c>
       <c r="AS4" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AT4" t="n">
         <v>2.32</v>
       </c>
       <c r="AU4" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AV4" t="n">
         <v>70</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="AX4" t="n">
         <v>15</v>
@@ -1246,7 +1246,7 @@
         <v>24</v>
       </c>
       <c r="AZ4" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BA4" t="n">
         <v>120</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>YyDJubM9</t>
+          <t>8fR1hy6F</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1648,157 +1648,157 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al Qadisiya</t>
+          <t>Al Kholood</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.3</v>
+        <v>3.9</v>
       </c>
       <c r="H7" t="n">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W7" t="n">
+        <v>12</v>
+      </c>
+      <c r="X7" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH7" t="n">
         <v>7.5</v>
       </c>
-      <c r="J7" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N7" t="n">
+      <c r="AI7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX7" t="n">
         <v>10</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W7" t="n">
-        <v>7</v>
-      </c>
-      <c r="X7" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL7" t="n">
+      <c r="AY7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA7" t="n">
         <v>51</v>
       </c>
-      <c r="AM7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS7" t="n">
+      <c r="BB7" t="n">
         <v>151</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>151</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>500</v>
       </c>
       <c r="BC7" t="n">
         <v>81</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8fR1hy6F</t>
+          <t>O6ibYFEq</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1830,344 +1830,162 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al Kholood</t>
+          <t>Al Orubah</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.9</v>
+        <v>6.5</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="I8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L8" t="n">
         <v>1.83</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2.4</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="O8" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S8" t="n">
         <v>1.29</v>
       </c>
-      <c r="P8" t="n">
+      <c r="T8" t="n">
         <v>3.5</v>
       </c>
-      <c r="Q8" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.75</v>
-      </c>
       <c r="U8" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V8" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W8" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="X8" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y8" t="n">
         <v>21</v>
       </c>
-      <c r="Y8" t="n">
-        <v>15</v>
-      </c>
       <c r="Z8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA8" t="n">
         <v>41</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>34</v>
       </c>
       <c r="AB8" t="n">
         <v>41</v>
       </c>
       <c r="AC8" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF8" t="n">
         <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="AH8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI8" t="n">
         <v>7.5</v>
       </c>
-      <c r="AI8" t="n">
-        <v>9</v>
-      </c>
       <c r="AJ8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AL8" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AM8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO8" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AP8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ8" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AR8" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS8" t="n">
         <v>400</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AX8" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AY8" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AZ8" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="BA8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB8" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BC8" t="n">
         <v>81</v>
       </c>
       <c r="BD8" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>O6ibYFEq</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>07/11/2024</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Al Orubah</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Al Ittihad</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="H9" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="J9" t="n">
-        <v>6</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W9" t="n">
-        <v>21</v>
-      </c>
-      <c r="X9" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>400</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>17</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD9" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="H2" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="J2" t="n">
         <v>4.75</v>
@@ -762,7 +762,7 @@
         <v>2.1</v>
       </c>
       <c r="L2" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
@@ -777,10 +777,10 @@
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -831,7 +831,7 @@
         <v>6.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AJ2" t="n">
         <v>9</v>
@@ -870,7 +870,7 @@
         <v>8.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW2" t="n">
         <v>3.75</v>
@@ -888,7 +888,7 @@
         <v>51</v>
       </c>
       <c r="BB2" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC2" t="n">
         <v>51</v>
@@ -1839,13 +1839,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H8" t="n">
         <v>4.75</v>
       </c>
       <c r="I8" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="J8" t="n">
         <v>6</v>
@@ -1881,10 +1881,10 @@
         <v>3.5</v>
       </c>
       <c r="U8" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V8" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W8" t="n">
         <v>21</v>
@@ -1896,10 +1896,10 @@
         <v>21</v>
       </c>
       <c r="Z8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AA8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AB8" t="n">
         <v>41</v>
@@ -1911,7 +1911,7 @@
         <v>9.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="n">
         <v>51</v>
@@ -1926,10 +1926,10 @@
         <v>7.5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AL8" t="n">
         <v>11</v>
@@ -1938,7 +1938,7 @@
         <v>23</v>
       </c>
       <c r="AN8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AO8" t="n">
         <v>34</v>
@@ -1947,7 +1947,7 @@
         <v>34</v>
       </c>
       <c r="AQ8" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AR8" t="n">
         <v>126</v>
@@ -1968,7 +1968,7 @@
         <v>3.6</v>
       </c>
       <c r="AX8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AY8" t="n">
         <v>17</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD8"/>
+  <dimension ref="A1:BD5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -777,10 +777,10 @@
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R2" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>boe4DyiR</t>
+          <t>APE9ifU7</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -920,157 +920,157 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>ZED</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Haras El Hodood</t>
+          <t>Al Ahly</t>
         </is>
       </c>
       <c r="G3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J3" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U3" t="n">
         <v>1.87</v>
       </c>
-      <c r="H3" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N3" t="n">
-        <v>6</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.95</v>
-      </c>
       <c r="V3" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="W3" t="n">
-        <v>5.9</v>
+        <v>14.5</v>
       </c>
       <c r="X3" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.25</v>
+        <v>17</v>
       </c>
       <c r="Z3" t="n">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="AA3" t="n">
-        <v>16.5</v>
+        <v>55</v>
       </c>
       <c r="AB3" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AC3" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>7.4</v>
       </c>
       <c r="AE3" t="n">
         <v>16.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AG3" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="AH3" t="n">
-        <v>10.25</v>
+        <v>6.6</v>
       </c>
       <c r="AI3" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>27</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>30</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>35</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>75</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ3" t="n">
         <v>25</v>
       </c>
-      <c r="AJ3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>90</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM3" t="n">
+      <c r="BA3" t="n">
         <v>60</v>
       </c>
-      <c r="AN3" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>35</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>70</v>
-      </c>
-      <c r="AS3" t="n">
+      <c r="BB3" t="n">
         <v>250</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>28</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>32</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>175</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>200</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>450</v>
       </c>
       <c r="BC3" t="n">
         <v>51</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jLidFcME</t>
+          <t>v12EbqCc</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,179 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ghazl El Mahallah</t>
+          <t>Ruch Chorzow</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>El Gaish</t>
+          <t>Chrobry Glogow</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.1</v>
+        <v>1.57</v>
       </c>
       <c r="H4" t="n">
-        <v>2.65</v>
+        <v>3.8</v>
       </c>
       <c r="I4" t="n">
-        <v>2.62</v>
+        <v>5.5</v>
       </c>
       <c r="J4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N4" t="n">
+        <v>13</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P4" t="n">
         <v>3.75</v>
       </c>
-      <c r="K4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.4</v>
-      </c>
       <c r="Q4" t="n">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="R4" t="n">
-        <v>1.47</v>
+        <v>2.03</v>
       </c>
       <c r="S4" t="n">
-        <v>1.55</v>
+        <v>1.36</v>
       </c>
       <c r="T4" t="n">
-        <v>2.35</v>
+        <v>3</v>
       </c>
       <c r="U4" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="V4" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="W4" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="X4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH4" t="n">
         <v>15</v>
       </c>
-      <c r="Y4" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>45</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>45</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AI4" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AJ4" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AK4" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="AL4" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AM4" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.9</v>
+        <v>3.6</v>
       </c>
       <c r="AO4" t="n">
-        <v>18.5</v>
+        <v>8</v>
       </c>
       <c r="AP4" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="AQ4" t="n">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="AR4" t="n">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="AS4" t="n">
-        <v>400</v>
+        <v>126</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.32</v>
+        <v>3</v>
       </c>
       <c r="AU4" t="n">
-        <v>6.9</v>
+        <v>8.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.4</v>
+        <v>7</v>
       </c>
       <c r="AX4" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AY4" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="AZ4" t="n">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="BA4" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="BB4" t="n">
-        <v>350</v>
+        <v>251</v>
       </c>
       <c r="BC4" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD4" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>APE9ifU7</t>
+          <t>O6ibYFEq</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,718 +1274,172 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ZED</t>
+          <t>Al Orubah</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Al Ahly</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="H5" t="n">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="I5" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="J5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q5" t="n">
         <v>1.57</v>
       </c>
-      <c r="J5" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.85</v>
-      </c>
       <c r="R5" t="n">
-        <v>1.9</v>
+        <v>2.35</v>
       </c>
       <c r="S5" t="n">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="T5" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U5" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="V5" t="n">
         <v>1.83</v>
       </c>
       <c r="W5" t="n">
-        <v>14.5</v>
+        <v>21</v>
       </c>
       <c r="X5" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="Y5" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>126</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY5" t="n">
         <v>17</v>
       </c>
-      <c r="Z5" t="n">
-        <v>100</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>27</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>30</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>35</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>200</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>200</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>450</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>75</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>18</v>
-      </c>
       <c r="AZ5" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="BA5" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="BB5" t="n">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="BC5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD5" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>v12EbqCc</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>07/11/2024</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>POLAND - DIVISION 1</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Ruch Chorzow</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Chrobry Glogow</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N6" t="n">
-        <v>13</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>8fR1hy6F</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>07/11/2024</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Al Kholood</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Al Shabab</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="J7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W7" t="n">
-        <v>12</v>
-      </c>
-      <c r="X7" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>400</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>O6ibYFEq</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>07/11/2024</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Al Orubah</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Al Ittihad</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>7</v>
-      </c>
-      <c r="H8" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="J8" t="n">
-        <v>6</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W8" t="n">
-        <v>21</v>
-      </c>
-      <c r="X8" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>126</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>400</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>17</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD8" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD5"/>
+  <dimension ref="A1:BD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>UDPaReIr</t>
+          <t>bR8Aj2ug</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,98 +728,98 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>ITALY - SERIE A</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CSKA Sofia</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="J2" t="n">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="K2" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="R2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S2" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V2" t="n">
         <v>1.8</v>
       </c>
       <c r="W2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y2" t="n">
         <v>11</v>
       </c>
-      <c r="X2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>15</v>
-      </c>
       <c r="Z2" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AA2" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF2" t="n">
         <v>51</v>
@@ -828,79 +828,79 @@
         <v>351</v>
       </c>
       <c r="AH2" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK2" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AL2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO2" t="n">
         <v>17</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AP2" t="n">
         <v>29</v>
       </c>
-      <c r="AN2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>34</v>
-      </c>
       <c r="AQ2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR2" t="n">
         <v>81</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>101</v>
       </c>
       <c r="AS2" t="n">
         <v>251</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU2" t="n">
         <v>8.5</v>
       </c>
       <c r="AV2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ2" t="n">
         <v>51</v>
       </c>
-      <c r="AW2" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>34</v>
-      </c>
       <c r="BA2" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB2" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD2" t="n">
         <v>151</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>APE9ifU7</t>
+          <t>UDPaReIr</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,167 +910,167 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ZED</t>
+          <t>CSKA 1948 Sofia</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Al Ahly</t>
+          <t>CSKA Sofia</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="H3" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>1.57</v>
+        <v>1.85</v>
       </c>
       <c r="J3" t="n">
-        <v>5.3</v>
+        <v>4.75</v>
       </c>
       <c r="K3" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="L3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N3" t="n">
+        <v>9</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
         <v>2.15</v>
       </c>
-      <c r="M3" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.85</v>
-      </c>
       <c r="R3" t="n">
-        <v>1.9</v>
+        <v>1.67</v>
       </c>
       <c r="S3" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="T3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V3" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W3" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="X3" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Y3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE3" t="n">
         <v>17</v>
       </c>
-      <c r="Z3" t="n">
-        <v>100</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>55</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AF3" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>600</v>
+        <v>351</v>
       </c>
       <c r="AH3" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>7.2</v>
+        <v>8.5</v>
       </c>
       <c r="AJ3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK3" t="n">
-        <v>11.25</v>
+        <v>15</v>
       </c>
       <c r="AL3" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AM3" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AN3" t="n">
-        <v>6.9</v>
+        <v>6</v>
       </c>
       <c r="AO3" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AP3" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AQ3" t="n">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="AR3" t="n">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="AS3" t="n">
-        <v>450</v>
+        <v>251</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU3" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="AX3" t="n">
-        <v>7.7</v>
+        <v>10</v>
       </c>
       <c r="AY3" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AZ3" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="BA3" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="BB3" t="n">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="BC3" t="n">
         <v>51</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>v12EbqCc</t>
+          <t>APE9ifU7</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1097,174 +1097,174 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ruch Chorzow</t>
+          <t>ZED</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Chrobry Glogow</t>
+          <t>Al Ahly</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.57</v>
+        <v>5.5</v>
       </c>
       <c r="H4" t="n">
         <v>3.8</v>
       </c>
       <c r="I4" t="n">
-        <v>5.5</v>
+        <v>1.57</v>
       </c>
       <c r="J4" t="n">
-        <v>2.1</v>
+        <v>5.3</v>
       </c>
       <c r="K4" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="L4" t="n">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>13</v>
+        <v>7.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="P4" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R4" t="n">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="S4" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="T4" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U4" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="V4" t="n">
         <v>1.83</v>
       </c>
       <c r="W4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC4" t="n">
         <v>7.5</v>
       </c>
-      <c r="X4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA4" t="n">
+      <c r="AD4" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AL4" t="n">
         <v>13</v>
       </c>
-      <c r="AB4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF4" t="n">
+      <c r="AM4" t="n">
+        <v>27</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>30</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>35</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>200</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>75</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>25</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>60</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC4" t="n">
         <v>51</v>
       </c>
-      <c r="AG4" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK4" t="n">
+      <c r="BD4" t="n">
         <v>51</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>O6ibYFEq</t>
+          <t>v12EbqCc</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,65 +1274,65 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al Orubah</t>
+          <t>Ruch Chorzow</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Chrobry Glogow</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>7</v>
+        <v>1.53</v>
       </c>
       <c r="H5" t="n">
-        <v>4.75</v>
+        <v>3.9</v>
       </c>
       <c r="I5" t="n">
-        <v>1.38</v>
+        <v>5.75</v>
       </c>
       <c r="J5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L5" t="n">
         <v>6</v>
       </c>
-      <c r="K5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N5" t="n">
+        <v>13</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q5" t="n">
         <v>1.83</v>
       </c>
-      <c r="M5" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.57</v>
-      </c>
       <c r="R5" t="n">
-        <v>2.35</v>
+        <v>2.03</v>
       </c>
       <c r="S5" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="T5" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U5" t="n">
         <v>1.83</v>
@@ -1341,76 +1341,76 @@
         <v>1.83</v>
       </c>
       <c r="W5" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="X5" t="n">
-        <v>41</v>
+        <v>7.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>21</v>
+        <v>8.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="AA5" t="n">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="AB5" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AC5" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AD5" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>500</v>
+        <v>251</v>
       </c>
       <c r="AH5" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AI5" t="n">
-        <v>7.5</v>
+        <v>29</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AK5" t="n">
-        <v>9.5</v>
+        <v>67</v>
       </c>
       <c r="AL5" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="AM5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>23</v>
       </c>
-      <c r="AN5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ5" t="n">
+      <c r="AR5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS5" t="n">
         <v>126</v>
       </c>
-      <c r="AR5" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>400</v>
-      </c>
       <c r="AT5" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AU5" t="n">
         <v>8.5</v>
@@ -1419,27 +1419,209 @@
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="AX5" t="n">
-        <v>6.5</v>
+        <v>29</v>
       </c>
       <c r="AY5" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AZ5" t="n">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="BA5" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="BB5" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="BC5" t="n">
         <v>81</v>
       </c>
       <c r="BD5" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>O6ibYFEq</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>07/11/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Al Orubah</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W6" t="n">
+        <v>21</v>
+      </c>
+      <c r="X6" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>126</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD6" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>UDPaReIr</t>
+          <t>APE9ifU7</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,167 +910,167 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia</t>
+          <t>ZED</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CSKA Sofia</t>
+          <t>Al Ahly</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="H3" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J3" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W3" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>27</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>30</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>35</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>75</v>
+      </c>
+      <c r="AW3" t="n">
         <v>3.4</v>
       </c>
-      <c r="I3" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N3" t="n">
-        <v>9</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W3" t="n">
-        <v>11</v>
-      </c>
-      <c r="X3" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>3.75</v>
-      </c>
       <c r="AX3" t="n">
-        <v>10</v>
+        <v>7.7</v>
       </c>
       <c r="AY3" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AZ3" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="BA3" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="BB3" t="n">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="BC3" t="n">
         <v>51</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>APE9ifU7</t>
+          <t>Emn9XsgJ</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,173 +1092,173 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ZED</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Al Ahly</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>5.5</v>
+        <v>2.38</v>
       </c>
       <c r="H4" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="I4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R4" t="n">
         <v>1.57</v>
       </c>
-      <c r="J4" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.9</v>
-      </c>
       <c r="S4" t="n">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="T4" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U4" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="W4" t="n">
-        <v>14.5</v>
+        <v>6.5</v>
       </c>
       <c r="X4" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="Y4" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="AA4" t="n">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AC4" t="n">
         <v>7.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>7.4</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AF4" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>600</v>
+        <v>401</v>
       </c>
       <c r="AH4" t="n">
-        <v>6.6</v>
+        <v>8</v>
       </c>
       <c r="AI4" t="n">
-        <v>7.2</v>
+        <v>15</v>
       </c>
       <c r="AJ4" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AK4" t="n">
-        <v>11.25</v>
+        <v>34</v>
       </c>
       <c r="AL4" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AM4" t="n">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="AN4" t="n">
-        <v>6.9</v>
+        <v>4.33</v>
       </c>
       <c r="AO4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AP4" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="AQ4" t="n">
-        <v>200</v>
+        <v>51</v>
       </c>
       <c r="AR4" t="n">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="AS4" t="n">
-        <v>450</v>
+        <v>201</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="AU4" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="AX4" t="n">
-        <v>7.7</v>
+        <v>19</v>
       </c>
       <c r="AY4" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="BA4" t="n">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="BB4" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BC4" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD4" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
@@ -1311,10 +1311,10 @@
         <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O5" t="n">
         <v>1.25</v>
@@ -1392,10 +1392,10 @@
         <v>41</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP5" t="n">
         <v>19</v>
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="H6" t="n">
         <v>4.75</v>
@@ -1484,19 +1484,19 @@
         <v>1.38</v>
       </c>
       <c r="J6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="K6" t="n">
         <v>2.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="O6" t="n">
         <v>1.17</v>
@@ -1505,10 +1505,10 @@
         <v>4.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R6" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="S6" t="n">
         <v>1.29</v>
@@ -1517,10 +1517,10 @@
         <v>3.5</v>
       </c>
       <c r="U6" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V6" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W6" t="n">
         <v>21</v>
@@ -1529,7 +1529,7 @@
         <v>41</v>
       </c>
       <c r="Y6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z6" t="n">
         <v>81</v>
@@ -1538,7 +1538,7 @@
         <v>51</v>
       </c>
       <c r="AB6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC6" t="n">
         <v>15</v>
@@ -1556,22 +1556,22 @@
         <v>500</v>
       </c>
       <c r="AH6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AJ6" t="n">
         <v>9</v>
       </c>
       <c r="AK6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AL6" t="n">
         <v>11</v>
       </c>
       <c r="AM6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN6" t="n">
         <v>8.5</v>
@@ -1580,13 +1580,13 @@
         <v>34</v>
       </c>
       <c r="AP6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ6" t="n">
         <v>126</v>
       </c>
       <c r="AR6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AS6" t="n">
         <v>400</v>
@@ -1595,13 +1595,13 @@
         <v>3.5</v>
       </c>
       <c r="AU6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV6" t="n">
         <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AX6" t="n">
         <v>6.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
@@ -1311,10 +1311,10 @@
         <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O5" t="n">
         <v>1.25</v>
@@ -1478,7 +1478,7 @@
         <v>7.5</v>
       </c>
       <c r="H6" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I6" t="n">
         <v>1.38</v>
@@ -1487,34 +1487,34 @@
         <v>6.5</v>
       </c>
       <c r="K6" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="P6" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="R6" t="n">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="S6" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="T6" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U6" t="n">
         <v>1.91</v>
@@ -1523,13 +1523,13 @@
         <v>1.8</v>
       </c>
       <c r="W6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X6" t="n">
         <v>41</v>
       </c>
       <c r="Y6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z6" t="n">
         <v>81</v>
@@ -1541,10 +1541,10 @@
         <v>51</v>
       </c>
       <c r="AC6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE6" t="n">
         <v>19</v>
@@ -1553,10 +1553,10 @@
         <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AH6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI6" t="n">
         <v>7</v>
@@ -1568,7 +1568,7 @@
         <v>9</v>
       </c>
       <c r="AL6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM6" t="n">
         <v>26</v>
@@ -1592,7 +1592,7 @@
         <v>400</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AU6" t="n">
         <v>9</v>
@@ -1601,7 +1601,7 @@
         <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AX6" t="n">
         <v>6.5</v>
@@ -1610,13 +1610,13 @@
         <v>17</v>
       </c>
       <c r="AZ6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA6" t="n">
         <v>41</v>
       </c>
       <c r="BB6" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC6" t="n">
         <v>81</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
@@ -1481,16 +1481,16 @@
         <v>4.5</v>
       </c>
       <c r="I6" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="J6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="K6" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L6" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
@@ -1517,19 +1517,19 @@
         <v>3.25</v>
       </c>
       <c r="U6" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="V6" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="W6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X6" t="n">
         <v>41</v>
       </c>
       <c r="Y6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z6" t="n">
         <v>81</v>
@@ -1541,25 +1541,25 @@
         <v>51</v>
       </c>
       <c r="AC6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD6" t="n">
         <v>9</v>
       </c>
       <c r="AE6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG6" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AJ6" t="n">
         <v>9</v>
@@ -1568,22 +1568,22 @@
         <v>9</v>
       </c>
       <c r="AL6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN6" t="n">
         <v>8.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP6" t="n">
         <v>41</v>
       </c>
       <c r="AQ6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AR6" t="n">
         <v>151</v>
@@ -1595,10 +1595,10 @@
         <v>3.25</v>
       </c>
       <c r="AU6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW6" t="n">
         <v>3.4</v>
@@ -1607,7 +1607,7 @@
         <v>6.5</v>
       </c>
       <c r="AY6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ6" t="n">
         <v>19</v>
@@ -1616,7 +1616,7 @@
         <v>41</v>
       </c>
       <c r="BB6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC6" t="n">
         <v>81</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
@@ -932,88 +932,88 @@
         <v>5.5</v>
       </c>
       <c r="H3" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I3" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="J3" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="K3" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L3" t="n">
         <v>2.18</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.15</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="P3" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="R3" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="S3" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="T3" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="U3" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="V3" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="W3" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="X3" t="n">
         <v>32</v>
       </c>
       <c r="Y3" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AA3" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB3" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AE3" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AG3" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AH3" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="AI3" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AJ3" t="n">
         <v>8</v>
@@ -1025,52 +1025,52 @@
         <v>13</v>
       </c>
       <c r="AM3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN3" t="n">
         <v>6.9</v>
       </c>
       <c r="AO3" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AP3" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AQ3" t="n">
         <v>200</v>
       </c>
       <c r="AR3" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AS3" t="n">
         <v>450</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="AU3" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AV3" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AW3" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="AX3" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AY3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA3" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BB3" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC3" t="n">
         <v>51</v>
@@ -1305,34 +1305,34 @@
         <v>2.1</v>
       </c>
       <c r="K5" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L5" t="n">
         <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R5" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S5" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T5" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U5" t="n">
         <v>1.83</v>
@@ -1341,7 +1341,7 @@
         <v>1.83</v>
       </c>
       <c r="W5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X5" t="n">
         <v>7.5</v>
@@ -1410,7 +1410,7 @@
         <v>126</v>
       </c>
       <c r="AT5" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU5" t="n">
         <v>8.5</v>
@@ -1419,7 +1419,7 @@
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX5" t="n">
         <v>29</v>
@@ -1493,28 +1493,28 @@
         <v>1.91</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P6" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="R6" t="n">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="S6" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T6" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U6" t="n">
         <v>2.1</v>
@@ -1556,7 +1556,7 @@
         <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI6" t="n">
         <v>6.5</v>
@@ -1592,7 +1592,7 @@
         <v>400</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU6" t="n">
         <v>9.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD6"/>
+  <dimension ref="A1:BD5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -929,64 +929,64 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="H3" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I3" t="n">
         <v>1.6</v>
       </c>
       <c r="J3" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="K3" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L3" t="n">
         <v>2.12</v>
       </c>
-      <c r="L3" t="n">
-        <v>2.18</v>
-      </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="P3" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="R3" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="S3" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="T3" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="U3" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="V3" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="W3" t="n">
         <v>14</v>
       </c>
       <c r="X3" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Z3" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AA3" t="n">
         <v>60</v>
@@ -995,10 +995,10 @@
         <v>60</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD3" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AE3" t="n">
         <v>17.5</v>
@@ -1007,34 +1007,34 @@
         <v>90</v>
       </c>
       <c r="AG3" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AH3" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="AI3" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AJ3" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AK3" t="n">
         <v>11.25</v>
       </c>
       <c r="AL3" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AM3" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AN3" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="AO3" t="n">
         <v>32</v>
       </c>
       <c r="AP3" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AQ3" t="n">
         <v>200</v>
@@ -1046,31 +1046,31 @@
         <v>450</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="AU3" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AV3" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AW3" t="n">
         <v>3.35</v>
       </c>
       <c r="AX3" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="AY3" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AZ3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA3" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BB3" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC3" t="n">
         <v>51</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H5" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K5" t="n">
         <v>2.38</v>
@@ -1311,16 +1311,16 @@
         <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O5" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q5" t="n">
         <v>1.8</v>
@@ -1341,7 +1341,7 @@
         <v>1.83</v>
       </c>
       <c r="W5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X5" t="n">
         <v>7.5</v>
@@ -1353,16 +1353,16 @@
         <v>11</v>
       </c>
       <c r="AA5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB5" t="n">
         <v>26</v>
       </c>
       <c r="AC5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE5" t="n">
         <v>17</v>
@@ -1371,13 +1371,13 @@
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH5" t="n">
         <v>15</v>
       </c>
       <c r="AI5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ5" t="n">
         <v>19</v>
@@ -1401,7 +1401,7 @@
         <v>19</v>
       </c>
       <c r="AQ5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR5" t="n">
         <v>41</v>
@@ -1422,7 +1422,7 @@
         <v>7.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY5" t="n">
         <v>34</v>
@@ -1440,188 +1440,6 @@
         <v>81</v>
       </c>
       <c r="BD5" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>O6ibYFEq</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>07/11/2024</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Al Orubah</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Al Ittihad</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="J6" t="n">
-        <v>7</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W6" t="n">
-        <v>17</v>
-      </c>
-      <c r="X6" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>400</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD6" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD5"/>
+  <dimension ref="A1:BD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -771,10 +771,10 @@
         <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q2" t="n">
         <v>2.3</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>APE9ifU7</t>
+          <t>h0hIZWhT</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,179 +910,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ZED</t>
+          <t>Talleres Cordoba</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Al Ahly</t>
+          <t>Lanus</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>5.6</v>
+        <v>1.9</v>
       </c>
       <c r="H3" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="I3" t="n">
-        <v>1.6</v>
+        <v>4.5</v>
       </c>
       <c r="J3" t="n">
-        <v>5.6</v>
+        <v>2.63</v>
       </c>
       <c r="K3" t="n">
-        <v>2.18</v>
+        <v>1.95</v>
       </c>
       <c r="L3" t="n">
-        <v>2.12</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
         <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="P3" t="n">
-        <v>3.1</v>
+        <v>2.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.98</v>
+        <v>2.5</v>
       </c>
       <c r="R3" t="n">
-        <v>1.78</v>
+        <v>1.5</v>
       </c>
       <c r="S3" t="n">
-        <v>1.39</v>
+        <v>1.53</v>
       </c>
       <c r="T3" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="U3" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="W3" t="n">
-        <v>14</v>
+        <v>5.5</v>
       </c>
       <c r="X3" t="n">
-        <v>35</v>
+        <v>7.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>18</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="AA3" t="n">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="AB3" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AG3" t="n">
-        <v>800</v>
+        <v>501</v>
       </c>
       <c r="AH3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW3" t="n">
         <v>6</v>
       </c>
-      <c r="AI3" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>30</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>32</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>35</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>200</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>250</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>450</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>3.35</v>
-      </c>
       <c r="AX3" t="n">
-        <v>7.6</v>
+        <v>26</v>
       </c>
       <c r="AY3" t="n">
-        <v>17.5</v>
+        <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="BA3" t="n">
-        <v>60</v>
+        <v>151</v>
       </c>
       <c r="BB3" t="n">
-        <v>250</v>
+        <v>401</v>
       </c>
       <c r="BC3" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD3" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Emn9XsgJ</t>
+          <t>0KUiA8fL</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,354 +1092,718 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>18:50</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="H4" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="J4" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L4" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P4" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S4" t="n">
         <v>1.57</v>
       </c>
-      <c r="S4" t="n">
-        <v>1.5</v>
-      </c>
       <c r="T4" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y4" t="n">
         <v>10</v>
       </c>
       <c r="Z4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA4" t="n">
         <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD4" t="n">
         <v>6</v>
       </c>
       <c r="AE4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI4" t="n">
         <v>17</v>
       </c>
-      <c r="AF4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>15</v>
-      </c>
       <c r="AJ4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL4" t="n">
         <v>34</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>29</v>
       </c>
       <c r="AM4" t="n">
         <v>41</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR4" t="n">
         <v>81</v>
       </c>
       <c r="AS4" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AU4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV4" t="n">
         <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA4" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB4" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BC4" t="n">
         <v>126</v>
       </c>
       <c r="BD4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>APE9ifU7</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>07/11/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>EGYPT - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ZED</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Al Ahly</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="W5" t="n">
+        <v>14</v>
+      </c>
+      <c r="X5" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>120</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>75</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>37</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>250</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>300</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>22</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>55</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Emn9XsgJ</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>07/11/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ENGLAND - CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N6" t="n">
+        <v>8</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>v12EbqCc</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>07/11/2024</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>POLAND - DIVISION 1</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Ruch Chorzow</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Chrobry Glogow</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="G7" t="n">
         <v>1.5</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H7" t="n">
         <v>4</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I7" t="n">
         <v>6</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J7" t="n">
         <v>2.05</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K7" t="n">
         <v>2.38</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L7" t="n">
         <v>6</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M7" t="n">
         <v>1.04</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N7" t="n">
         <v>13</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O7" t="n">
         <v>1.25</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P7" t="n">
         <v>3.75</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q7" t="n">
         <v>1.8</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R7" t="n">
         <v>2</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S7" t="n">
         <v>1.33</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T7" t="n">
         <v>3.25</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U7" t="n">
         <v>1.83</v>
       </c>
-      <c r="V5" t="n">
+      <c r="V7" t="n">
         <v>1.83</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W7" t="n">
         <v>7</v>
       </c>
-      <c r="X5" t="n">
+      <c r="X7" t="n">
         <v>7.5</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Y7" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="Z7" t="n">
         <v>11</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA7" t="n">
         <v>12</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB7" t="n">
         <v>26</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC7" t="n">
         <v>12</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD7" t="n">
         <v>8</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE7" t="n">
         <v>17</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF7" t="n">
         <v>51</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG7" t="n">
         <v>301</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH7" t="n">
         <v>15</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI7" t="n">
         <v>34</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ7" t="n">
         <v>19</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK7" t="n">
         <v>67</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL7" t="n">
         <v>41</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM7" t="n">
         <v>41</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN7" t="n">
         <v>3.5</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AO7" t="n">
         <v>7.5</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AP7" t="n">
         <v>19</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AQ7" t="n">
         <v>21</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AR7" t="n">
         <v>41</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AS7" t="n">
         <v>126</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AT7" t="n">
         <v>3.25</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AU7" t="n">
         <v>8.5</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AV7" t="n">
         <v>51</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="AW7" t="n">
         <v>7.5</v>
       </c>
-      <c r="AX5" t="n">
+      <c r="AX7" t="n">
         <v>34</v>
       </c>
-      <c r="AY5" t="n">
+      <c r="AY7" t="n">
         <v>34</v>
       </c>
-      <c r="AZ5" t="n">
+      <c r="AZ7" t="n">
         <v>101</v>
       </c>
-      <c r="BA5" t="n">
+      <c r="BA7" t="n">
         <v>126</v>
       </c>
-      <c r="BB5" t="n">
+      <c r="BB7" t="n">
         <v>251</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BC7" t="n">
         <v>81</v>
       </c>
-      <c r="BD5" t="n">
+      <c r="BD7" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD7"/>
+  <dimension ref="A1:BD8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -771,10 +771,10 @@
         <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P2" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
         <v>2.3</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0KUiA8fL</t>
+          <t>jkXVhfgi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,134 +1092,134 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>18:50</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Argentinos Jrs</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="I4" t="n">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U4" t="n">
         <v>1.95</v>
       </c>
-      <c r="L4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.1</v>
-      </c>
       <c r="V4" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="W4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X4" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Y4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z4" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AA4" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AB4" t="n">
         <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AH4" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AJ4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AK4" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AL4" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AM4" t="n">
         <v>41</v>
       </c>
       <c r="AN4" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AP4" t="n">
         <v>29</v>
       </c>
       <c r="AQ4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR4" t="n">
         <v>81</v>
@@ -1228,43 +1228,43 @@
         <v>251</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="AU4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV4" t="n">
         <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AY4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ4" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA4" t="n">
         <v>81</v>
       </c>
-      <c r="BA4" t="n">
-        <v>126</v>
-      </c>
       <c r="BB4" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="BC4" t="n">
         <v>126</v>
       </c>
       <c r="BD4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>APE9ifU7</t>
+          <t>0KUiA8fL</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>18:50</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ZED</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Al Ahly</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>6.1</v>
+        <v>2.2</v>
       </c>
       <c r="H5" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>1.55</v>
+        <v>3.6</v>
       </c>
       <c r="J5" t="n">
-        <v>5.9</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>2.22</v>
+        <v>1.95</v>
       </c>
       <c r="L5" t="n">
-        <v>2.05</v>
+        <v>4.33</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
         <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="P5" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="R5" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="S5" t="n">
-        <v>1.39</v>
+        <v>1.57</v>
       </c>
       <c r="T5" t="n">
-        <v>2.77</v>
+        <v>2.25</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="W5" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="X5" t="n">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.5</v>
+        <v>10</v>
       </c>
       <c r="Z5" t="n">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="AA5" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="AB5" t="n">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>7.3</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
         <v>19</v>
       </c>
       <c r="AF5" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="AG5" t="n">
-        <v>900</v>
+        <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>6.1</v>
+        <v>8.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>6.7</v>
+        <v>17</v>
       </c>
       <c r="AJ5" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AK5" t="n">
-        <v>10.75</v>
+        <v>41</v>
       </c>
       <c r="AL5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO5" t="n">
         <v>13</v>
       </c>
-      <c r="AM5" t="n">
-        <v>30</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>37</v>
-      </c>
       <c r="AP5" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AQ5" t="n">
-        <v>250</v>
+        <v>41</v>
       </c>
       <c r="AR5" t="n">
-        <v>300</v>
+        <v>81</v>
       </c>
       <c r="AS5" t="n">
-        <v>500</v>
+        <v>251</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.77</v>
+        <v>2.25</v>
       </c>
       <c r="AU5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV5" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="AW5" t="n">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>7.2</v>
+        <v>21</v>
       </c>
       <c r="AY5" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AZ5" t="n">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="BA5" t="n">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="BB5" t="n">
-        <v>250</v>
+        <v>351</v>
       </c>
       <c r="BC5" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD5" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Emn9XsgJ</t>
+          <t>APE9ifU7</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,179 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>ZED</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Al Ahly</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.38</v>
+        <v>6.2</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="I6" t="n">
-        <v>3.1</v>
+        <v>1.55</v>
       </c>
       <c r="J6" t="n">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="K6" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
         <v>2</v>
       </c>
-      <c r="L6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="R6" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W6" t="n">
+        <v>14</v>
+      </c>
+      <c r="X6" t="n">
+        <v>37</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>75</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>37</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>250</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>300</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AU6" t="n">
         <v>8</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X6" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z6" t="n">
+      <c r="AV6" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AZ6" t="n">
         <v>23</v>
       </c>
-      <c r="AA6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF6" t="n">
+      <c r="BA6" t="n">
+        <v>55</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC6" t="n">
         <v>51</v>
       </c>
-      <c r="AG6" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ6" t="n">
+      <c r="BD6" t="n">
         <v>51</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>v12EbqCc</t>
+          <t>Emn9XsgJ</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,95 +1638,95 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ruch Chorzow</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Chrobry Glogow</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S7" t="n">
         <v>1.5</v>
       </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="T7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD7" t="n">
         <v>6</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L7" t="n">
-        <v>6</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N7" t="n">
-        <v>13</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W7" t="n">
-        <v>7</v>
-      </c>
-      <c r="X7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>8</v>
       </c>
       <c r="AE7" t="n">
         <v>17</v>
@@ -1735,75 +1735,257 @@
         <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="AH7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI7" t="n">
         <v>15</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AJ7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK7" t="n">
         <v>34</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>67</v>
-      </c>
       <c r="AL7" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AM7" t="n">
         <v>41</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO7" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="AP7" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AQ7" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AR7" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AS7" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="AU7" t="n">
         <v>8.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="AX7" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AY7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ7" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA7" t="n">
         <v>101</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>126</v>
       </c>
       <c r="BB7" t="n">
         <v>251</v>
       </c>
       <c r="BC7" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>v12EbqCc</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>07/11/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>POLAND - DIVISION 1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Ruch Chorzow</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Chrobry Glogow</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L8" t="n">
+        <v>6</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N8" t="n">
+        <v>13</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W8" t="n">
+        <v>7</v>
+      </c>
+      <c r="X8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC8" t="n">
         <v>81</v>
       </c>
-      <c r="BD7" t="n">
+      <c r="BD8" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD8"/>
+  <dimension ref="A1:BD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1141,10 +1141,10 @@
         <v>2.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R4" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S4" t="n">
         <v>1.5</v>
@@ -1317,10 +1317,10 @@
         <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P5" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q5" t="n">
         <v>2.5</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>APE9ifU7</t>
+          <t>Emn9XsgJ</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,537 +1456,173 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ZED</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Al Ahly</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>6.2</v>
+        <v>2.45</v>
       </c>
       <c r="H6" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>1.55</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N6" t="n">
+        <v>8</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W6" t="n">
+        <v>7</v>
+      </c>
+      <c r="X6" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD6" t="n">
         <v>6</v>
       </c>
-      <c r="K6" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N6" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W6" t="n">
-        <v>14</v>
-      </c>
-      <c r="X6" t="n">
-        <v>37</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>150</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>7.2</v>
-      </c>
       <c r="AE6" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AF6" t="n">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>900</v>
+        <v>401</v>
       </c>
       <c r="AH6" t="n">
-        <v>5.8</v>
+        <v>8</v>
       </c>
       <c r="AI6" t="n">
-        <v>6.6</v>
+        <v>13</v>
       </c>
       <c r="AJ6" t="n">
-        <v>8.25</v>
+        <v>12</v>
       </c>
       <c r="AK6" t="n">
-        <v>10.75</v>
+        <v>34</v>
       </c>
       <c r="AL6" t="n">
-        <v>13.5</v>
+        <v>29</v>
       </c>
       <c r="AM6" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="AN6" t="n">
-        <v>7.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO6" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="AP6" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="AQ6" t="n">
-        <v>250</v>
+        <v>51</v>
       </c>
       <c r="AR6" t="n">
-        <v>300</v>
+        <v>81</v>
       </c>
       <c r="AS6" t="n">
-        <v>500</v>
+        <v>251</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.72</v>
+        <v>2.5</v>
       </c>
       <c r="AU6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="AX6" t="n">
-        <v>7.3</v>
+        <v>19</v>
       </c>
       <c r="AY6" t="n">
-        <v>17.5</v>
+        <v>29</v>
       </c>
       <c r="AZ6" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="BA6" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="BB6" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BC6" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD6" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Emn9XsgJ</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>07/11/2024</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>West Brom</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Burnley</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N7" t="n">
-        <v>8</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X7" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD7" t="n">
         <v>151</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>v12EbqCc</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>07/11/2024</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>POLAND - DIVISION 1</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Ruch Chorzow</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Chrobry Glogow</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-      <c r="I8" t="n">
-        <v>6</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L8" t="n">
-        <v>6</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N8" t="n">
-        <v>13</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W8" t="n">
-        <v>7</v>
-      </c>
-      <c r="X8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="J2" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
         <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M2" t="n">
         <v>1.1</v>
@@ -798,16 +798,16 @@
         <v>8.5</v>
       </c>
       <c r="X2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA2" t="n">
         <v>29</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>26</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
@@ -828,19 +828,19 @@
         <v>351</v>
       </c>
       <c r="AH2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ2" t="n">
         <v>10</v>
       </c>
       <c r="AK2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM2" t="n">
         <v>34</v>
@@ -1141,10 +1141,10 @@
         <v>2.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R4" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S4" t="n">
         <v>1.5</v>
@@ -1478,13 +1478,13 @@
         <v>2.45</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
         <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
         <v>2</v>
@@ -1496,7 +1496,7 @@
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.44</v>
@@ -1517,10 +1517,10 @@
         <v>2.5</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V6" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W6" t="n">
         <v>7</v>
@@ -1535,7 +1535,7 @@
         <v>23</v>
       </c>
       <c r="AA6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB6" t="n">
         <v>34</v>
@@ -1556,25 +1556,25 @@
         <v>401</v>
       </c>
       <c r="AH6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI6" t="n">
         <v>13</v>
       </c>
       <c r="AJ6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM6" t="n">
         <v>41</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO6" t="n">
         <v>15</v>
@@ -1589,7 +1589,7 @@
         <v>81</v>
       </c>
       <c r="AS6" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT6" t="n">
         <v>2.5</v>
@@ -1604,7 +1604,7 @@
         <v>4.75</v>
       </c>
       <c r="AX6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY6" t="n">
         <v>29</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="J2" t="n">
         <v>3.75</v>
@@ -846,19 +846,19 @@
         <v>34</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP2" t="n">
         <v>29</v>
       </c>
       <c r="AQ2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS2" t="n">
         <v>251</v>
@@ -1484,7 +1484,7 @@
         <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K6" t="n">
         <v>2</v>
@@ -1496,7 +1496,7 @@
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
         <v>1.44</v>
@@ -1535,7 +1535,7 @@
         <v>23</v>
       </c>
       <c r="AA6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB6" t="n">
         <v>34</v>
@@ -1556,7 +1556,7 @@
         <v>401</v>
       </c>
       <c r="AH6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI6" t="n">
         <v>13</v>
@@ -1565,7 +1565,7 @@
         <v>11</v>
       </c>
       <c r="AK6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL6" t="n">
         <v>26</v>
@@ -1574,7 +1574,7 @@
         <v>41</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO6" t="n">
         <v>15</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="J2" t="n">
         <v>3.75</v>
@@ -762,13 +762,13 @@
         <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
         <v>1.4</v>
@@ -795,7 +795,7 @@
         <v>1.8</v>
       </c>
       <c r="W2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X2" t="n">
         <v>15</v>
@@ -831,13 +831,13 @@
         <v>7</v>
       </c>
       <c r="AI2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL2" t="n">
         <v>21</v>
@@ -876,16 +876,16 @@
         <v>4.33</v>
       </c>
       <c r="AX2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY2" t="n">
         <v>26</v>
       </c>
       <c r="AZ2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB2" t="n">
         <v>201</v>
@@ -1141,10 +1141,10 @@
         <v>2.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R4" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S4" t="n">
         <v>1.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD6"/>
+  <dimension ref="A1:BD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="J2" t="n">
         <v>3.75</v>
@@ -762,13 +762,13 @@
         <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
         <v>1.4</v>
@@ -795,7 +795,7 @@
         <v>1.8</v>
       </c>
       <c r="W2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X2" t="n">
         <v>15</v>
@@ -813,7 +813,7 @@
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD2" t="n">
         <v>5.5</v>
@@ -831,13 +831,13 @@
         <v>7</v>
       </c>
       <c r="AI2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>10</v>
       </c>
-      <c r="AJ2" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AK2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL2" t="n">
         <v>21</v>
@@ -876,16 +876,16 @@
         <v>4.33</v>
       </c>
       <c r="AX2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY2" t="n">
         <v>26</v>
       </c>
       <c r="AZ2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB2" t="n">
         <v>201</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Emn9XsgJ</t>
+          <t>4ECJO79E</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,172 +1456,354 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Dep. Pasto</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>America De Cali</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L6" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X6" t="n">
         <v>8</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W6" t="n">
-        <v>7</v>
-      </c>
-      <c r="X6" t="n">
-        <v>11</v>
-      </c>
       <c r="Y6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AA6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD6" t="n">
         <v>6</v>
       </c>
       <c r="AE6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>17</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AK6" t="n">
         <v>51</v>
       </c>
-      <c r="AG6" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ6" t="n">
+      <c r="AL6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO6" t="n">
         <v>11</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>15</v>
       </c>
       <c r="AP6" t="n">
         <v>26</v>
       </c>
       <c r="AQ6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV6" t="n">
         <v>81</v>
       </c>
-      <c r="AS6" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>67</v>
-      </c>
       <c r="AW6" t="n">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="AX6" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AY6" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ6" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BA6" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BB6" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BC6" t="n">
         <v>126</v>
       </c>
       <c r="BD6" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Emn9XsgJ</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>07/11/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ENGLAND - CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>7</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>451</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD7" t="n">
         <v>151</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD7"/>
+  <dimension ref="A1:BD8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -953,10 +953,10 @@
         <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q3" t="n">
         <v>2.5</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0KUiA8fL</t>
+          <t>AgfqVj1p</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,83 +1274,83 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>18:50</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Platense</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Dep. Riestra</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N5" t="n">
+        <v>5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P5" t="n">
         <v>2.2</v>
       </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N5" t="n">
-        <v>7</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="Q5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V5" t="n">
         <v>1.44</v>
       </c>
-      <c r="P5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.67</v>
-      </c>
       <c r="W5" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="X5" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
       </c>
       <c r="Z5" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AA5" t="n">
         <v>21</v>
@@ -1359,43 +1359,43 @@
         <v>41</v>
       </c>
       <c r="AC5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD5" t="n">
         <v>6.5</v>
       </c>
-      <c r="AD5" t="n">
-        <v>6</v>
-      </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AF5" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK5" t="n">
         <v>67</v>
       </c>
-      <c r="AG5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>41</v>
-      </c>
       <c r="AL5" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AM5" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AN5" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP5" t="n">
         <v>29</v>
@@ -1407,34 +1407,34 @@
         <v>81</v>
       </c>
       <c r="AS5" t="n">
+        <v>401</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA5" t="n">
         <v>251</v>
       </c>
-      <c r="AT5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>126</v>
-      </c>
       <c r="BB5" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="BC5" t="n">
         <v>126</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4ECJO79E</t>
+          <t>0KUiA8fL</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20:45</t>
+          <t>18:50</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1466,43 +1466,43 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Dep. Pasto</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>America De Cali</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="J6" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
         <v>1.95</v>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P6" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q6" t="n">
         <v>2.5</v>
@@ -1517,25 +1517,25 @@
         <v>2.25</v>
       </c>
       <c r="U6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V6" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z6" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB6" t="n">
         <v>41</v>
@@ -1550,43 +1550,43 @@
         <v>19</v>
       </c>
       <c r="AF6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG6" t="n">
         <v>201</v>
       </c>
       <c r="AH6" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AJ6" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AK6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM6" t="n">
         <v>41</v>
       </c>
-      <c r="AM6" t="n">
-        <v>51</v>
-      </c>
       <c r="AN6" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ6" t="n">
         <v>41</v>
       </c>
       <c r="AR6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS6" t="n">
         <v>251</v>
@@ -1595,25 +1595,25 @@
         <v>2.25</v>
       </c>
       <c r="AU6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ6" t="n">
         <v>81</v>
       </c>
-      <c r="AW6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>101</v>
-      </c>
       <c r="BA6" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB6" t="n">
         <v>351</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Emn9XsgJ</t>
+          <t>4ECJO79E</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,172 +1638,354 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Dep. Pasto</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>America De Cali</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="H7" t="n">
         <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="J7" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L7" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P7" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S7" t="n">
         <v>1.57</v>
       </c>
-      <c r="S7" t="n">
-        <v>1.5</v>
-      </c>
       <c r="T7" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="W7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC7" t="n">
         <v>6.5</v>
-      </c>
-      <c r="X7" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7.5</v>
       </c>
       <c r="AD7" t="n">
         <v>6</v>
       </c>
       <c r="AE7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>17</v>
       </c>
-      <c r="AF7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>451</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>12</v>
-      </c>
       <c r="AK7" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AL7" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AM7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="AO7" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AP7" t="n">
         <v>26</v>
       </c>
       <c r="AQ7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR7" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS7" t="n">
         <v>251</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AU7" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="AX7" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AY7" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ7" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BA7" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BB7" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BC7" t="n">
         <v>126</v>
       </c>
       <c r="BD7" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Emn9XsgJ</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>07/11/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ENGLAND - CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>7</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>451</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD8" t="n">
         <v>151</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>bR8Aj2ug</t>
+          <t>h0hIZWhT</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,41 +728,41 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ITALY - SERIE A</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Talleres Cordoba</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Lanus</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.3</v>
+        <v>1.9</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="I2" t="n">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L2" t="n">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
         <v>1.1</v>
@@ -771,136 +771,136 @@
         <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="R2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V2" t="n">
         <v>1.62</v>
       </c>
-      <c r="S2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W2" t="n">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="X2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z2" t="n">
         <v>15</v>
       </c>
-      <c r="Y2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>34</v>
-      </c>
       <c r="AA2" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK2" t="n">
         <v>51</v>
       </c>
-      <c r="AG2" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI2" t="n">
+      <c r="AL2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO2" t="n">
         <v>11</v>
       </c>
-      <c r="AJ2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>19</v>
-      </c>
       <c r="AP2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR2" t="n">
         <v>67</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>101</v>
       </c>
       <c r="AS2" t="n">
         <v>251</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU2" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="AX2" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AY2" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BA2" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BB2" t="n">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>h0hIZWhT</t>
+          <t>jkXVhfgi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>18:45</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -920,169 +920,169 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Talleres Cordoba</t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lanus</t>
+          <t>Argentinos Jrs</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="H3" t="n">
-        <v>3.25</v>
+        <v>2.88</v>
       </c>
       <c r="I3" t="n">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="J3" t="n">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="K3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N3" t="n">
+        <v>8</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U3" t="n">
         <v>1.95</v>
       </c>
-      <c r="L3" t="n">
-        <v>5</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N3" t="n">
-        <v>7</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.2</v>
-      </c>
       <c r="V3" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="W3" t="n">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="X3" t="n">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AA3" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AB3" t="n">
         <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AF3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR3" t="n">
         <v>81</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>67</v>
       </c>
       <c r="AS3" t="n">
         <v>251</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU3" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA3" t="n">
         <v>81</v>
       </c>
-      <c r="AW3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>151</v>
-      </c>
       <c r="BB3" t="n">
-        <v>401</v>
+        <v>251</v>
       </c>
       <c r="BC3" t="n">
         <v>126</v>
       </c>
       <c r="BD3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jkXVhfgi</t>
+          <t>AgfqVj1p</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1102,169 +1102,169 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Defensa y Justicia</t>
+          <t>Platense</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Argentinos Jrs</t>
+          <t>Dep. Riestra</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="H4" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.75</v>
+        <v>5.75</v>
       </c>
       <c r="J4" t="n">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="L4" t="n">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="P4" t="n">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="R4" t="n">
-        <v>1.6</v>
+        <v>1.36</v>
       </c>
       <c r="S4" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="T4" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="U4" t="n">
-        <v>1.95</v>
+        <v>2.63</v>
       </c>
       <c r="V4" t="n">
-        <v>1.8</v>
+        <v>1.44</v>
       </c>
       <c r="W4" t="n">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="X4" t="n">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AA4" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AB4" t="n">
         <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AD4" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AF4" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL4" t="n">
         <v>51</v>
       </c>
-      <c r="AG4" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ4" t="n">
+      <c r="AM4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO4" t="n">
         <v>11</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>17</v>
       </c>
       <c r="AP4" t="n">
         <v>29</v>
       </c>
       <c r="AQ4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR4" t="n">
         <v>81</v>
       </c>
       <c r="AS4" t="n">
+        <v>401</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA4" t="n">
         <v>251</v>
       </c>
-      <c r="AT4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>81</v>
-      </c>
       <c r="BB4" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="BC4" t="n">
         <v>126</v>
       </c>
       <c r="BD4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AgfqVj1p</t>
+          <t>lpgmUAGj</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1284,163 +1284,163 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Platense</t>
+          <t>Velez Sarsfield</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dep. Riestra</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.8</v>
+        <v>1.44</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>4.33</v>
       </c>
       <c r="I5" t="n">
-        <v>5.75</v>
+        <v>8</v>
       </c>
       <c r="J5" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
-        <v>1.83</v>
+        <v>2.3</v>
       </c>
       <c r="L5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M5" t="n">
-        <v>1.17</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.62</v>
+        <v>1.29</v>
       </c>
       <c r="P5" t="n">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.1</v>
+        <v>1.93</v>
       </c>
       <c r="R5" t="n">
-        <v>1.36</v>
+        <v>1.93</v>
       </c>
       <c r="S5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V5" t="n">
         <v>1.67</v>
       </c>
-      <c r="T5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.44</v>
-      </c>
       <c r="W5" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="X5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC5" t="n">
         <v>10</v>
       </c>
-      <c r="Z5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA5" t="n">
+      <c r="AD5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE5" t="n">
         <v>21</v>
       </c>
-      <c r="AB5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>26</v>
-      </c>
       <c r="AF5" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AG5" t="n">
         <v>501</v>
       </c>
       <c r="AH5" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="AI5" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AJ5" t="n">
         <v>21</v>
       </c>
       <c r="AK5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL5" t="n">
         <v>51</v>
       </c>
       <c r="AM5" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP5" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AQ5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AX5" t="n">
         <v>41</v>
       </c>
-      <c r="AR5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>401</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>34</v>
-      </c>
       <c r="AY5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ5" t="n">
         <v>151</v>
       </c>
       <c r="BA5" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BB5" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="BC5" t="n">
         <v>126</v>
       </c>
       <c r="BD5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6">
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="K7" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M7" t="n">
         <v>1.11</v>
@@ -1681,22 +1681,22 @@
         <v>6.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P7" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R7" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S7" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T7" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U7" t="n">
         <v>2.2</v>
@@ -1708,13 +1708,13 @@
         <v>5.5</v>
       </c>
       <c r="X7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y7" t="n">
         <v>9.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA7" t="n">
         <v>19</v>
@@ -1726,10 +1726,10 @@
         <v>6.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF7" t="n">
         <v>81</v>
@@ -1738,7 +1738,7 @@
         <v>201</v>
       </c>
       <c r="AH7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI7" t="n">
         <v>21</v>
@@ -1756,10 +1756,10 @@
         <v>51</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP7" t="n">
         <v>26</v>
@@ -1774,7 +1774,7 @@
         <v>251</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU7" t="n">
         <v>9.5</v>
@@ -1786,7 +1786,7 @@
         <v>6</v>
       </c>
       <c r="AX7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY7" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD8"/>
+  <dimension ref="A1:BD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1111,28 +1111,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K4" t="n">
         <v>1.83</v>
       </c>
       <c r="L4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.62</v>
@@ -1177,7 +1177,7 @@
         <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AD4" t="n">
         <v>6.5</v>
@@ -1192,10 +1192,10 @@
         <v>501</v>
       </c>
       <c r="AH4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ4" t="n">
         <v>21</v>
@@ -1207,7 +1207,7 @@
         <v>51</v>
       </c>
       <c r="AM4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN4" t="n">
         <v>3.5</v>
@@ -1237,7 +1237,7 @@
         <v>101</v>
       </c>
       <c r="AW4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX4" t="n">
         <v>34</v>
@@ -1805,188 +1805,6 @@
       </c>
       <c r="BD7" t="n">
         <v>126</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Emn9XsgJ</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>07/11/2024</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>West Brom</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Burnley</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N8" t="n">
-        <v>7</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X8" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>451</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD7"/>
+  <dimension ref="A1:BD8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -792,7 +792,7 @@
         <v>2.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="W2" t="n">
         <v>5.5</v>
@@ -971,10 +971,10 @@
         <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="V3" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W3" t="n">
         <v>8</v>
@@ -1153,10 +1153,10 @@
         <v>2.1</v>
       </c>
       <c r="U4" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="V4" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="W4" t="n">
         <v>4.5</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H5" t="n">
         <v>4.33</v>
       </c>
       <c r="I5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J5" t="n">
         <v>2</v>
@@ -1311,10 +1311,10 @@
         <v>7</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O5" t="n">
         <v>1.29</v>
@@ -1329,52 +1329,52 @@
         <v>1.93</v>
       </c>
       <c r="S5" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T5" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U5" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V5" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="W5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA5" t="n">
         <v>13</v>
       </c>
       <c r="AB5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC5" t="n">
         <v>10</v>
       </c>
       <c r="AD5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG5" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AH5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI5" t="n">
         <v>34</v>
@@ -1404,13 +1404,13 @@
         <v>21</v>
       </c>
       <c r="AR5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS5" t="n">
         <v>151</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU5" t="n">
         <v>9.5</v>
@@ -1419,7 +1419,7 @@
         <v>67</v>
       </c>
       <c r="AW5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AX5" t="n">
         <v>41</v>
@@ -1431,13 +1431,13 @@
         <v>151</v>
       </c>
       <c r="BA5" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB5" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BC5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD5" t="n">
         <v>151</v>
@@ -1805,6 +1805,188 @@
       </c>
       <c r="BD7" t="n">
         <v>126</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Q1OUVsW1</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>07/11/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Tepatitlan de Morelos</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tapatio</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N8" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="W8" t="n">
+        <v>8</v>
+      </c>
+      <c r="X8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>60</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>80</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
@@ -750,7 +750,7 @@
         <v>1.9</v>
       </c>
       <c r="H2" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
         <v>4.5</v>
@@ -783,16 +783,16 @@
         <v>1.5</v>
       </c>
       <c r="S2" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T2" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U2" t="n">
         <v>2.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="W2" t="n">
         <v>5.5</v>
@@ -828,7 +828,7 @@
         <v>501</v>
       </c>
       <c r="AH2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI2" t="n">
         <v>21</v>
@@ -846,7 +846,7 @@
         <v>51</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO2" t="n">
         <v>11</v>
@@ -864,7 +864,7 @@
         <v>251</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU2" t="n">
         <v>9.5</v>
@@ -876,7 +876,7 @@
         <v>6</v>
       </c>
       <c r="AX2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
@@ -971,10 +971,10 @@
         <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V3" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W3" t="n">
         <v>8</v>
@@ -1153,10 +1153,10 @@
         <v>2.1</v>
       </c>
       <c r="U4" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="V4" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="W4" t="n">
         <v>4.5</v>
@@ -1311,10 +1311,10 @@
         <v>7</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O5" t="n">
         <v>1.29</v>
@@ -1323,10 +1323,10 @@
         <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R5" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S5" t="n">
         <v>1.36</v>
@@ -1475,28 +1475,28 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K6" t="n">
         <v>1.95</v>
       </c>
       <c r="L6" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.44</v>
@@ -1511,10 +1511,10 @@
         <v>1.5</v>
       </c>
       <c r="S6" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T6" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U6" t="n">
         <v>2.1</v>
@@ -1529,10 +1529,10 @@
         <v>9</v>
       </c>
       <c r="Y6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA6" t="n">
         <v>21</v>
@@ -1580,7 +1580,7 @@
         <v>13</v>
       </c>
       <c r="AP6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ6" t="n">
         <v>41</v>
@@ -1592,7 +1592,7 @@
         <v>251</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU6" t="n">
         <v>9</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
@@ -783,10 +783,10 @@
         <v>1.5</v>
       </c>
       <c r="S2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T2" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U2" t="n">
         <v>2.2</v>
@@ -828,7 +828,7 @@
         <v>501</v>
       </c>
       <c r="AH2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI2" t="n">
         <v>21</v>
@@ -846,7 +846,7 @@
         <v>51</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO2" t="n">
         <v>11</v>
@@ -864,7 +864,7 @@
         <v>251</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU2" t="n">
         <v>9.5</v>
@@ -876,7 +876,7 @@
         <v>6</v>
       </c>
       <c r="AX2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H3" t="n">
         <v>2.88</v>
       </c>
       <c r="I3" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
@@ -989,7 +989,7 @@
         <v>29</v>
       </c>
       <c r="AA3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB3" t="n">
         <v>41</v>
@@ -1010,10 +1010,10 @@
         <v>351</v>
       </c>
       <c r="AH3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ3" t="n">
         <v>11</v>
@@ -1031,7 +1031,7 @@
         <v>4.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP3" t="n">
         <v>29</v>
@@ -1058,7 +1058,7 @@
         <v>4.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY3" t="n">
         <v>29</v>
@@ -1129,10 +1129,10 @@
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
         <v>1.62</v>
@@ -1323,10 +1323,10 @@
         <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R5" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S5" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD8"/>
+  <dimension ref="A1:BD9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H3" t="n">
         <v>2.88</v>
       </c>
       <c r="I3" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J3" t="n">
         <v>3.4</v>
@@ -977,22 +977,22 @@
         <v>1.8</v>
       </c>
       <c r="W3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y3" t="n">
         <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA3" t="n">
         <v>23</v>
       </c>
       <c r="AB3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC3" t="n">
         <v>7</v>
@@ -1022,7 +1022,7 @@
         <v>29</v>
       </c>
       <c r="AL3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM3" t="n">
         <v>41</v>
@@ -1055,7 +1055,7 @@
         <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX3" t="n">
         <v>17</v>
@@ -1437,7 +1437,7 @@
         <v>351</v>
       </c>
       <c r="BC5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD5" t="n">
         <v>151</v>
@@ -1810,182 +1810,364 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>djGN4nIr</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>07/11/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>22:45</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>COLOMBIA - PRIMERA A</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Pereira</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Atl. Nacional</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>7</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>Q1OUVsW1</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>07/11/2024</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>22:00</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Tepatitlan de Morelos</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Tapatio</t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="G9" t="n">
         <v>2.67</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H9" t="n">
         <v>2.92</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I9" t="n">
         <v>2.67</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J9" t="n">
         <v>3.2</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K9" t="n">
         <v>2.02</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L9" t="n">
         <v>3.2</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M9" t="n">
         <v>1.01</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N9" t="n">
         <v>7.6</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O9" t="n">
         <v>1.32</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P9" t="n">
         <v>2.82</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q9" t="n">
         <v>1.93</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R9" t="n">
         <v>1.7</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S9" t="n">
         <v>1.4</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T9" t="n">
         <v>2.5</v>
       </c>
-      <c r="U8" t="n">
+      <c r="U9" t="n">
         <v>1.7</v>
       </c>
-      <c r="V8" t="n">
+      <c r="V9" t="n">
         <v>1.93</v>
       </c>
-      <c r="W8" t="n">
+      <c r="W9" t="n">
         <v>8</v>
       </c>
-      <c r="X8" t="n">
+      <c r="X9" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Y9" t="n">
         <v>9.75</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="Z9" t="n">
         <v>32</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AA9" t="n">
         <v>23</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AB9" t="n">
         <v>32</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AC9" t="n">
         <v>8.5</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AD9" t="n">
         <v>5.7</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AE9" t="n">
         <v>12.5</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AF9" t="n">
         <v>60</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AG9" t="n">
         <v>450</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AH9" t="n">
         <v>8.5</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AI9" t="n">
         <v>14</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AJ9" t="n">
         <v>9.75</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AK9" t="n">
         <v>32</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AL9" t="n">
         <v>23</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AM9" t="n">
         <v>30</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AN9" t="n">
         <v>4.6</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AO9" t="n">
         <v>14</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AP9" t="n">
         <v>20</v>
       </c>
-      <c r="AQ8" t="n">
+      <c r="AQ9" t="n">
         <v>60</v>
       </c>
-      <c r="AR8" t="n">
+      <c r="AR9" t="n">
         <v>90</v>
       </c>
-      <c r="AS8" t="n">
+      <c r="AS9" t="n">
         <v>250</v>
       </c>
-      <c r="AT8" t="n">
+      <c r="AT9" t="n">
         <v>2.55</v>
       </c>
-      <c r="AU8" t="n">
+      <c r="AU9" t="n">
         <v>6.3</v>
       </c>
-      <c r="AV8" t="n">
+      <c r="AV9" t="n">
         <v>50</v>
       </c>
-      <c r="AW8" t="n">
+      <c r="AW9" t="n">
         <v>4.65</v>
       </c>
-      <c r="AX8" t="n">
+      <c r="AX9" t="n">
         <v>14</v>
       </c>
-      <c r="AY8" t="n">
+      <c r="AY9" t="n">
         <v>19</v>
       </c>
-      <c r="AZ8" t="n">
+      <c r="AZ9" t="n">
         <v>60</v>
       </c>
-      <c r="BA8" t="n">
+      <c r="BA9" t="n">
         <v>80</v>
       </c>
-      <c r="BB8" t="n">
+      <c r="BB9" t="n">
         <v>200</v>
       </c>
-      <c r="BC8" t="n">
+      <c r="BC9" t="n">
         <v>51</v>
       </c>
-      <c r="BD8" t="n">
+      <c r="BD9" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD9"/>
+  <dimension ref="A1:BD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>h0hIZWhT</t>
+          <t>jkXVhfgi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>18:45</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -738,169 +738,169 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Talleres Cordoba</t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Lanus</t>
+          <t>Argentinos Jrs</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="I2" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N2" t="n">
+        <v>8</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN2" t="n">
         <v>4.5</v>
       </c>
-      <c r="J2" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L2" t="n">
-        <v>5</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>7</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X2" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z2" t="n">
+      <c r="AO2" t="n">
         <v>15</v>
       </c>
-      <c r="AA2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF2" t="n">
+      <c r="AP2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR2" t="n">
         <v>81</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>67</v>
       </c>
       <c r="AS2" t="n">
         <v>251</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU2" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA2" t="n">
         <v>81</v>
       </c>
-      <c r="AW2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>151</v>
-      </c>
       <c r="BB2" t="n">
-        <v>401</v>
+        <v>251</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jkXVhfgi</t>
+          <t>AgfqVj1p</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -920,169 +920,169 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Defensa y Justicia</t>
+          <t>Platense</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Argentinos Jrs</t>
+          <t>Dep. Riestra</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H3" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>2.9</v>
+        <v>5.75</v>
       </c>
       <c r="J3" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN3" t="n">
         <v>3.4</v>
       </c>
-      <c r="K3" t="n">
-        <v>2</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N3" t="n">
-        <v>8</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X3" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y3" t="n">
+      <c r="AO3" t="n">
         <v>11</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>15</v>
       </c>
       <c r="AP3" t="n">
         <v>29</v>
       </c>
       <c r="AQ3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR3" t="n">
         <v>81</v>
       </c>
       <c r="AS3" t="n">
+        <v>401</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA3" t="n">
         <v>251</v>
       </c>
-      <c r="AT3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>81</v>
-      </c>
       <c r="BB3" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="BC3" t="n">
         <v>126</v>
       </c>
       <c r="BD3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AgfqVj1p</t>
+          <t>lpgmUAGj</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1102,169 +1102,169 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Platense</t>
+          <t>Velez Sarsfield</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dep. Riestra</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.83</v>
+        <v>1.45</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>4.33</v>
       </c>
       <c r="I4" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.63</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>1.83</v>
+        <v>2.3</v>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O4" t="n">
-        <v>1.62</v>
+        <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.1</v>
+        <v>1.93</v>
       </c>
       <c r="R4" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S4" t="n">
         <v>1.36</v>
       </c>
-      <c r="S4" t="n">
-        <v>1.67</v>
-      </c>
       <c r="T4" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="U4" t="n">
-        <v>2.63</v>
+        <v>2.05</v>
       </c>
       <c r="V4" t="n">
-        <v>1.44</v>
+        <v>1.7</v>
       </c>
       <c r="W4" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="X4" t="n">
         <v>6.5</v>
       </c>
       <c r="Y4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC4" t="n">
         <v>10</v>
       </c>
-      <c r="Z4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA4" t="n">
+      <c r="AD4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE4" t="n">
         <v>21</v>
       </c>
-      <c r="AB4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>26</v>
-      </c>
       <c r="AF4" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AH4" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AI4" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AJ4" t="n">
         <v>21</v>
       </c>
       <c r="AK4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL4" t="n">
         <v>51</v>
       </c>
       <c r="AM4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV4" t="n">
         <v>67</v>
       </c>
-      <c r="AN4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ4" t="n">
+      <c r="AW4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX4" t="n">
         <v>41</v>
       </c>
-      <c r="AR4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>401</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>34</v>
-      </c>
       <c r="AY4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ4" t="n">
         <v>151</v>
       </c>
       <c r="BA4" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BB4" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="BC4" t="n">
         <v>126</v>
       </c>
       <c r="BD4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>lpgmUAGj</t>
+          <t>4ECJO79E</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,161 +1274,161 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>21:15</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Velez Sarsfield</t>
+          <t>Dep. Pasto</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>America De Cali</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.45</v>
+        <v>1.83</v>
       </c>
       <c r="H5" t="n">
-        <v>4.33</v>
+        <v>3.2</v>
       </c>
       <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X5" t="n">
         <v>7.5</v>
       </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L5" t="n">
-        <v>7</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N5" t="n">
-        <v>11</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W5" t="n">
+      <c r="Y5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC5" t="n">
         <v>6.5</v>
       </c>
-      <c r="X5" t="n">
+      <c r="AD5" t="n">
         <v>6.5</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>8</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG5" t="n">
-        <v>451</v>
+        <v>201</v>
       </c>
       <c r="AH5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>17</v>
       </c>
-      <c r="AI5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>21</v>
-      </c>
       <c r="AK5" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AL5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM5" t="n">
         <v>51</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="AO5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AP5" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ5" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AR5" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AS5" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AT5" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="AU5" t="n">
         <v>9.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AX5" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AY5" t="n">
         <v>41</v>
       </c>
       <c r="AZ5" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BA5" t="n">
         <v>151</v>
@@ -1440,13 +1440,13 @@
         <v>126</v>
       </c>
       <c r="BD5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0KUiA8fL</t>
+          <t>djGN4nIr</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>18:50</t>
+          <t>22:45</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1466,43 +1466,43 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Pereira</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Atl. Nacional</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
+        <v>3</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L6" t="n">
         <v>3.75</v>
       </c>
-      <c r="J6" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4.5</v>
-      </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P6" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q6" t="n">
         <v>2.5</v>
@@ -1511,10 +1511,10 @@
         <v>1.5</v>
       </c>
       <c r="S6" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T6" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U6" t="n">
         <v>2.1</v>
@@ -1523,19 +1523,19 @@
         <v>1.67</v>
       </c>
       <c r="W6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AA6" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AB6" t="n">
         <v>41</v>
@@ -1553,46 +1553,46 @@
         <v>67</v>
       </c>
       <c r="AG6" t="n">
-        <v>201</v>
+        <v>900</v>
       </c>
       <c r="AH6" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AI6" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AJ6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM6" t="n">
         <v>41</v>
       </c>
       <c r="AN6" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR6" t="n">
         <v>81</v>
       </c>
       <c r="AS6" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU6" t="n">
         <v>9</v>
@@ -1601,22 +1601,22 @@
         <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY6" t="n">
         <v>34</v>
       </c>
       <c r="AZ6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA6" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB6" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC6" t="n">
         <v>126</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4ECJO79E</t>
+          <t>Q1OUVsW1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,536 +1638,172 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20:45</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Dep. Pasto</t>
+          <t>Tepatitlan de Morelos</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>America De Cali</t>
+          <t>Tapatio</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.83</v>
+        <v>2.72</v>
       </c>
       <c r="H7" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="J7" t="n">
         <v>3.2</v>
       </c>
-      <c r="I7" t="n">
-        <v>5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.6</v>
-      </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="L7" t="n">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>6.5</v>
+        <v>7.6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="P7" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.4</v>
+        <v>1.98</v>
       </c>
       <c r="R7" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="S7" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="T7" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U7" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="V7" t="n">
-        <v>1.62</v>
+        <v>1.93</v>
       </c>
       <c r="W7" t="n">
-        <v>5.5</v>
+        <v>7.9</v>
       </c>
       <c r="X7" t="n">
-        <v>7.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y7" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA7" t="n">
+      <c r="AK7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY7" t="n">
         <v>19</v>
       </c>
-      <c r="AB7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK7" t="n">
+      <c r="AZ7" t="n">
+        <v>60</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>80</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC7" t="n">
         <v>51</v>
       </c>
-      <c r="AL7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>126</v>
-      </c>
       <c r="BD7" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>djGN4nIr</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>07/11/2024</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>22:45</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>COLOMBIA - PRIMERA A</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Pereira</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Atl. Nacional</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N8" t="n">
-        <v>7</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X8" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Q1OUVsW1</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>07/11/2024</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Tepatitlan de Morelos</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Tapatio</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N9" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="W9" t="n">
-        <v>8</v>
-      </c>
-      <c r="X9" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>450</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>30</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>60</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>90</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>60</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>80</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>200</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD9" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD7"/>
+  <dimension ref="A1:BD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jkXVhfgi</t>
+          <t>AgfqVj1p</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -738,169 +738,169 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Defensa y Justicia</t>
+          <t>Platense</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Argentinos Jrs</t>
+          <t>Dep. Riestra</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H2" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>2.9</v>
+        <v>5.75</v>
       </c>
       <c r="J2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN2" t="n">
         <v>3.4</v>
       </c>
-      <c r="K2" t="n">
-        <v>2</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N2" t="n">
-        <v>8</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W2" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y2" t="n">
+      <c r="AO2" t="n">
         <v>11</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>15</v>
       </c>
       <c r="AP2" t="n">
         <v>29</v>
       </c>
       <c r="AQ2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR2" t="n">
         <v>81</v>
       </c>
       <c r="AS2" t="n">
+        <v>401</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA2" t="n">
         <v>251</v>
       </c>
-      <c r="AT2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>81</v>
-      </c>
       <c r="BB2" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AgfqVj1p</t>
+          <t>lpgmUAGj</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -920,169 +920,169 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Platense</t>
+          <t>Velez Sarsfield</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Dep. Riestra</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.8</v>
+        <v>1.45</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>4.33</v>
       </c>
       <c r="I3" t="n">
-        <v>5.75</v>
+        <v>7.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>1.83</v>
+        <v>2.3</v>
       </c>
       <c r="L3" t="n">
+        <v>7</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N3" t="n">
+        <v>11</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W3" t="n">
         <v>6.5</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N3" t="n">
-        <v>5</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W3" t="n">
-        <v>4.5</v>
       </c>
       <c r="X3" t="n">
         <v>6.5</v>
       </c>
       <c r="Y3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC3" t="n">
         <v>10</v>
       </c>
-      <c r="Z3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA3" t="n">
+      <c r="AD3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE3" t="n">
         <v>21</v>
       </c>
-      <c r="AB3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>26</v>
-      </c>
       <c r="AF3" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="AG3" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AH3" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="AI3" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AJ3" t="n">
         <v>21</v>
       </c>
       <c r="AK3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL3" t="n">
         <v>51</v>
       </c>
       <c r="AM3" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO3" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP3" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AQ3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR3" t="n">
         <v>41</v>
       </c>
-      <c r="AR3" t="n">
-        <v>81</v>
-      </c>
       <c r="AS3" t="n">
-        <v>401</v>
+        <v>151</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="AU3" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AY3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ3" t="n">
         <v>151</v>
       </c>
       <c r="BA3" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BB3" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="BC3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>lpgmUAGj</t>
+          <t>4ECJO79E</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,161 +1092,161 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>21:15</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Velez Sarsfield</t>
+          <t>Dep. Pasto</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>America De Cali</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.45</v>
+        <v>1.83</v>
       </c>
       <c r="H4" t="n">
-        <v>4.33</v>
+        <v>3.2</v>
       </c>
       <c r="I4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X4" t="n">
         <v>7.5</v>
       </c>
-      <c r="J4" t="n">
-        <v>2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N4" t="n">
-        <v>11</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W4" t="n">
+      <c r="Y4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC4" t="n">
         <v>6.5</v>
       </c>
-      <c r="X4" t="n">
+      <c r="AD4" t="n">
         <v>6.5</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>8</v>
       </c>
       <c r="AE4" t="n">
         <v>21</v>
       </c>
       <c r="AF4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG4" t="n">
-        <v>451</v>
+        <v>201</v>
       </c>
       <c r="AH4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>17</v>
       </c>
-      <c r="AI4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>21</v>
-      </c>
       <c r="AK4" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AL4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM4" t="n">
         <v>51</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="AO4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AP4" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ4" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AR4" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AS4" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AT4" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="AU4" t="n">
         <v>9.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AX4" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AY4" t="n">
         <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BA4" t="n">
         <v>151</v>
@@ -1258,13 +1258,13 @@
         <v>126</v>
       </c>
       <c r="BD4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4ECJO79E</t>
+          <t>djGN4nIr</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20:45</t>
+          <t>22:45</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1284,76 +1284,76 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Dep. Pasto</t>
+          <t>Pereira</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>America De Cali</t>
+          <t>Atl. Nacional</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.83</v>
+        <v>2.55</v>
       </c>
       <c r="H5" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="L5" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
+        <v>7</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W5" t="n">
         <v>6.5</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W5" t="n">
-        <v>5.5</v>
-      </c>
       <c r="X5" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AA5" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AB5" t="n">
         <v>41</v>
@@ -1362,79 +1362,79 @@
         <v>6.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR5" t="n">
         <v>81</v>
       </c>
-      <c r="AG5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR5" t="n">
+      <c r="AS5" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV5" t="n">
         <v>67</v>
       </c>
-      <c r="AS5" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>81</v>
-      </c>
       <c r="AW5" t="n">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="AX5" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AY5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ5" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA5" t="n">
         <v>101</v>
       </c>
-      <c r="BA5" t="n">
-        <v>151</v>
-      </c>
       <c r="BB5" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC5" t="n">
         <v>126</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>djGN4nIr</t>
+          <t>Q1OUVsW1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,354 +1456,172 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>22:45</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Pereira</t>
+          <t>Tepatitlan de Morelos</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Atl. Nacional</t>
+          <t>Tapatio</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N6" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="W6" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="X6" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT6" t="n">
         <v>2.55</v>
       </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N6" t="n">
-        <v>7</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X6" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE6" t="n">
+      <c r="AU6" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY6" t="n">
         <v>19</v>
       </c>
-      <c r="AF6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ6" t="n">
+      <c r="AZ6" t="n">
+        <v>60</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>80</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC6" t="n">
         <v>51</v>
       </c>
-      <c r="AR6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>126</v>
-      </c>
       <c r="BD6" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Q1OUVsW1</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>07/11/2024</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Tepatitlan de Morelos</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Tapatio</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N7" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="W7" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="X7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>450</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>14</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>22</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>14</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>60</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>90</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>14</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>60</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>80</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>200</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD7" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
@@ -995,7 +995,7 @@
         <v>29</v>
       </c>
       <c r="AC3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD3" t="n">
         <v>8</v>
@@ -1034,7 +1034,7 @@
         <v>7</v>
       </c>
       <c r="AP3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ3" t="n">
         <v>21</v>
@@ -1049,7 +1049,7 @@
         <v>3</v>
       </c>
       <c r="AU3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV3" t="n">
         <v>67</v>
@@ -1147,10 +1147,10 @@
         <v>1.53</v>
       </c>
       <c r="S4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T4" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="U4" t="n">
         <v>2.2</v>
@@ -1329,7 +1329,7 @@
         <v>1.5</v>
       </c>
       <c r="S5" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="T5" t="n">
         <v>2.25</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
@@ -747,34 +747,34 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="H2" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="J2" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K2" t="n">
         <v>1.83</v>
       </c>
       <c r="L2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M2" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q2" t="n">
         <v>3.1</v>
@@ -789,16 +789,16 @@
         <v>2.1</v>
       </c>
       <c r="U2" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V2" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="X2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
@@ -810,16 +810,16 @@
         <v>21</v>
       </c>
       <c r="AB2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF2" t="n">
         <v>126</v>
@@ -831,16 +831,16 @@
         <v>9.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ2" t="n">
         <v>21</v>
       </c>
       <c r="AK2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL2" t="n">
         <v>67</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>51</v>
       </c>
       <c r="AM2" t="n">
         <v>81</v>
@@ -849,7 +849,7 @@
         <v>3.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP2" t="n">
         <v>29</v>
@@ -876,16 +876,16 @@
         <v>7</v>
       </c>
       <c r="AX2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AY2" t="n">
         <v>51</v>
       </c>
       <c r="AZ2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BA2" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BB2" t="n">
         <v>501</v>
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H3" t="n">
         <v>4.33</v>
       </c>
       <c r="I3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K3" t="n">
         <v>2.3</v>
@@ -947,10 +947,10 @@
         <v>7</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
         <v>1.29</v>
@@ -971,13 +971,13 @@
         <v>3</v>
       </c>
       <c r="U3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X3" t="n">
         <v>6.5</v>
@@ -986,7 +986,7 @@
         <v>8.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA3" t="n">
         <v>13</v>
@@ -995,10 +995,10 @@
         <v>29</v>
       </c>
       <c r="AC3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE3" t="n">
         <v>21</v>
@@ -1007,16 +1007,16 @@
         <v>67</v>
       </c>
       <c r="AG3" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AH3" t="n">
         <v>17</v>
       </c>
       <c r="AI3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK3" t="n">
         <v>81</v>
@@ -1034,7 +1034,7 @@
         <v>7</v>
       </c>
       <c r="AP3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ3" t="n">
         <v>21</v>
@@ -1049,13 +1049,13 @@
         <v>3</v>
       </c>
       <c r="AU3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV3" t="n">
         <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AX3" t="n">
         <v>41</v>
@@ -1067,13 +1067,13 @@
         <v>151</v>
       </c>
       <c r="BA3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB3" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BC3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD3" t="n">
         <v>151</v>
@@ -1293,19 +1293,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J5" t="n">
         <v>3.4</v>
       </c>
       <c r="K5" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L5" t="n">
         <v>3.75</v>
@@ -1353,7 +1353,7 @@
         <v>26</v>
       </c>
       <c r="AA5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB5" t="n">
         <v>41</v>
@@ -1365,7 +1365,7 @@
         <v>6</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
         <v>67</v>
@@ -1374,7 +1374,7 @@
         <v>900</v>
       </c>
       <c r="AH5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI5" t="n">
         <v>13</v>
@@ -1383,7 +1383,7 @@
         <v>12</v>
       </c>
       <c r="AK5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL5" t="n">
         <v>29</v>
@@ -1392,7 +1392,7 @@
         <v>41</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO5" t="n">
         <v>15</v>
@@ -1407,7 +1407,7 @@
         <v>81</v>
       </c>
       <c r="AS5" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT5" t="n">
         <v>2.25</v>
@@ -1422,13 +1422,13 @@
         <v>4.75</v>
       </c>
       <c r="AX5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY5" t="n">
         <v>34</v>
       </c>
       <c r="AZ5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA5" t="n">
         <v>101</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="J2" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K2" t="n">
         <v>1.83</v>
       </c>
       <c r="L2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O2" t="n">
         <v>1.67</v>
@@ -798,7 +798,7 @@
         <v>4.33</v>
       </c>
       <c r="X2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
@@ -813,13 +813,13 @@
         <v>51</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF2" t="n">
         <v>126</v>
@@ -831,16 +831,16 @@
         <v>9.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ2" t="n">
         <v>21</v>
       </c>
       <c r="AK2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM2" t="n">
         <v>81</v>
@@ -849,10 +849,10 @@
         <v>3.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ2" t="n">
         <v>41</v>
@@ -876,16 +876,16 @@
         <v>7</v>
       </c>
       <c r="AX2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AY2" t="n">
         <v>51</v>
       </c>
       <c r="AZ2" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BA2" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BB2" t="n">
         <v>501</v>
@@ -947,10 +947,10 @@
         <v>7</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O3" t="n">
         <v>1.29</v>
@@ -1073,7 +1073,7 @@
         <v>401</v>
       </c>
       <c r="BC3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD3" t="n">
         <v>151</v>
@@ -1111,16 +1111,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="H4" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="J4" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
@@ -1129,10 +1129,10 @@
         <v>5.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
         <v>1.44</v>
@@ -1141,16 +1141,16 @@
         <v>2.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R4" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T4" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U4" t="n">
         <v>2.2</v>
@@ -1162,22 +1162,22 @@
         <v>5.5</v>
       </c>
       <c r="X4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD4" t="n">
         <v>6.5</v>
@@ -1192,34 +1192,34 @@
         <v>201</v>
       </c>
       <c r="AH4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI4" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AJ4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK4" t="n">
         <v>51</v>
       </c>
       <c r="AL4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM4" t="n">
         <v>51</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP4" t="n">
         <v>26</v>
       </c>
       <c r="AQ4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR4" t="n">
         <v>67</v>
@@ -1228,7 +1228,7 @@
         <v>251</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU4" t="n">
         <v>9.5</v>
@@ -1237,7 +1237,7 @@
         <v>81</v>
       </c>
       <c r="AW4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX4" t="n">
         <v>29</v>
@@ -1246,7 +1246,7 @@
         <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA4" t="n">
         <v>151</v>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="H6" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="I6" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="J6" t="n">
         <v>3.2</v>
@@ -1493,22 +1493,22 @@
         <v>3.2</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P6" t="n">
-        <v>2.77</v>
+        <v>2.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="R6" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S6" t="n">
         <v>1.4</v>
@@ -1517,16 +1517,16 @@
         <v>2.5</v>
       </c>
       <c r="U6" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="V6" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="W6" t="n">
         <v>8.25</v>
       </c>
       <c r="X6" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y6" t="n">
         <v>9.75</v>
@@ -1541,37 +1541,37 @@
         <v>32</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
       </c>
       <c r="AF6" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG6" t="n">
         <v>500</v>
       </c>
       <c r="AH6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AK6" t="n">
         <v>32</v>
       </c>
       <c r="AL6" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AM6" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AN6" t="n">
         <v>4.6</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
@@ -765,10 +765,10 @@
         <v>6.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.67</v>
@@ -819,7 +819,7 @@
         <v>6.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF2" t="n">
         <v>126</v>
@@ -876,7 +876,7 @@
         <v>7</v>
       </c>
       <c r="AX2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AY2" t="n">
         <v>51</v>
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="H3" t="n">
         <v>4.33</v>
       </c>
       <c r="I3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
         <v>2.3</v>
@@ -947,10 +947,10 @@
         <v>7</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
         <v>1.29</v>
@@ -971,10 +971,10 @@
         <v>3</v>
       </c>
       <c r="U3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V3" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="W3" t="n">
         <v>6</v>
@@ -1055,7 +1055,7 @@
         <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AX3" t="n">
         <v>41</v>
@@ -1067,10 +1067,10 @@
         <v>151</v>
       </c>
       <c r="BA3" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB3" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BC3" t="n">
         <v>151</v>
@@ -1293,28 +1293,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L5" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.5</v>
@@ -1341,10 +1341,10 @@
         <v>1.67</v>
       </c>
       <c r="W5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y5" t="n">
         <v>11</v>
@@ -1353,7 +1353,7 @@
         <v>26</v>
       </c>
       <c r="AA5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB5" t="n">
         <v>41</v>
@@ -1374,10 +1374,10 @@
         <v>900</v>
       </c>
       <c r="AH5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ5" t="n">
         <v>12</v>
@@ -1395,7 +1395,7 @@
         <v>4.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP5" t="n">
         <v>29</v>
@@ -1407,7 +1407,7 @@
         <v>81</v>
       </c>
       <c r="AS5" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT5" t="n">
         <v>2.25</v>
@@ -1425,7 +1425,7 @@
         <v>17</v>
       </c>
       <c r="AY5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ5" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
@@ -947,10 +947,10 @@
         <v>7</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O3" t="n">
         <v>1.29</v>
@@ -959,10 +959,10 @@
         <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R3" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S3" t="n">
         <v>1.36</v>
@@ -977,7 +977,7 @@
         <v>1.7</v>
       </c>
       <c r="W3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X3" t="n">
         <v>6.5</v>
@@ -986,7 +986,7 @@
         <v>8.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA3" t="n">
         <v>13</v>
@@ -998,7 +998,7 @@
         <v>10</v>
       </c>
       <c r="AD3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE3" t="n">
         <v>21</v>
@@ -1007,16 +1007,16 @@
         <v>67</v>
       </c>
       <c r="AG3" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AH3" t="n">
         <v>17</v>
       </c>
       <c r="AI3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK3" t="n">
         <v>81</v>
@@ -1073,7 +1073,7 @@
         <v>351</v>
       </c>
       <c r="BC3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD3" t="n">
         <v>151</v>
@@ -1293,28 +1293,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K5" t="n">
         <v>1.91</v>
       </c>
       <c r="L5" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
         <v>1.5</v>
@@ -1341,10 +1341,10 @@
         <v>1.67</v>
       </c>
       <c r="W5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y5" t="n">
         <v>11</v>
@@ -1377,7 +1377,7 @@
         <v>7</v>
       </c>
       <c r="AI5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ5" t="n">
         <v>12</v>
@@ -1395,7 +1395,7 @@
         <v>4.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP5" t="n">
         <v>29</v>
@@ -1425,7 +1425,7 @@
         <v>17</v>
       </c>
       <c r="AY5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ5" t="n">
         <v>51</v>
@@ -1481,7 +1481,7 @@
         <v>2.87</v>
       </c>
       <c r="I6" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="J6" t="n">
         <v>3.2</v>
@@ -1496,7 +1496,7 @@
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="O6" t="n">
         <v>1.36</v>
@@ -1523,13 +1523,13 @@
         <v>1.88</v>
       </c>
       <c r="W6" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="X6" t="n">
         <v>14.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="Z6" t="n">
         <v>35</v>
@@ -1547,7 +1547,7 @@
         <v>5.6</v>
       </c>
       <c r="AE6" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF6" t="n">
         <v>65</v>
@@ -1556,19 +1556,19 @@
         <v>500</v>
       </c>
       <c r="AH6" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AI6" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AJ6" t="n">
         <v>9.75</v>
       </c>
       <c r="AK6" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM6" t="n">
         <v>35</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD6"/>
+  <dimension ref="A1:BD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AgfqVj1p</t>
+          <t>lpgmUAGj</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -738,169 +738,169 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Platense</t>
+          <t>Velez Sarsfield</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dep. Riestra</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.8</v>
+        <v>1.45</v>
       </c>
       <c r="H2" t="n">
-        <v>3.1</v>
+        <v>4.33</v>
       </c>
       <c r="I2" t="n">
-        <v>5.75</v>
+        <v>7.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>1.83</v>
+        <v>2.3</v>
       </c>
       <c r="L2" t="n">
+        <v>7</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N2" t="n">
+        <v>11</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W2" t="n">
         <v>6.5</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W2" t="n">
-        <v>4.33</v>
       </c>
       <c r="X2" t="n">
         <v>6.5</v>
       </c>
       <c r="Y2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC2" t="n">
         <v>10</v>
       </c>
-      <c r="Z2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA2" t="n">
+      <c r="AD2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE2" t="n">
         <v>21</v>
       </c>
-      <c r="AB2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>29</v>
-      </c>
       <c r="AF2" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="AG2" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AH2" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="AI2" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AJ2" t="n">
         <v>21</v>
       </c>
       <c r="AK2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL2" t="n">
         <v>51</v>
       </c>
       <c r="AM2" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP2" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AQ2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR2" t="n">
         <v>41</v>
       </c>
-      <c r="AR2" t="n">
-        <v>81</v>
-      </c>
       <c r="AS2" t="n">
-        <v>401</v>
+        <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="AU2" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX2" t="n">
         <v>41</v>
       </c>
       <c r="AY2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ2" t="n">
         <v>151</v>
       </c>
       <c r="BA2" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BB2" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>lpgmUAGj</t>
+          <t>djGN4nIr</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,179 +910,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>21:15</t>
+          <t>22:45</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Velez Sarsfield</t>
+          <t>Pereira</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Atl. Nacional</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.45</v>
+        <v>2.63</v>
       </c>
       <c r="H3" t="n">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>7.5</v>
+        <v>2.9</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="K3" t="n">
-        <v>2.3</v>
+        <v>1.91</v>
       </c>
       <c r="L3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N3" t="n">
         <v>7</v>
       </c>
-      <c r="M3" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N3" t="n">
-        <v>11</v>
-      </c>
       <c r="O3" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="P3" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="R3" t="n">
-        <v>1.9</v>
+        <v>1.48</v>
       </c>
       <c r="S3" t="n">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="T3" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W3" t="n">
         <v>6.5</v>
       </c>
       <c r="X3" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC3" t="n">
         <v>6.5</v>
       </c>
-      <c r="Y3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>10</v>
-      </c>
       <c r="AD3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AF3" t="n">
         <v>67</v>
       </c>
       <c r="AG3" t="n">
-        <v>451</v>
+        <v>900</v>
       </c>
       <c r="AH3" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="AI3" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="AJ3" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AK3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR3" t="n">
         <v>81</v>
       </c>
-      <c r="AL3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>41</v>
-      </c>
       <c r="AS3" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="AT3" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AU3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV3" t="n">
         <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="AX3" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="AY3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ3" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="BA3" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BB3" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC3" t="n">
         <v>126</v>
       </c>
       <c r="BD3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4ECJO79E</t>
+          <t>Q1OUVsW1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,536 +1092,172 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20:45</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Dep. Pasto</t>
+          <t>Tepatitlan de Morelos</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>America De Cali</t>
+          <t>Tapatio</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.73</v>
+        <v>2.87</v>
       </c>
       <c r="H4" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="I4" t="n">
-        <v>5.75</v>
+        <v>2.52</v>
       </c>
       <c r="J4" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="L4" t="n">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="R4" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S4" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="T4" t="n">
         <v>2.5</v>
       </c>
       <c r="U4" t="n">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="V4" t="n">
-        <v>1.62</v>
+        <v>1.87</v>
       </c>
       <c r="W4" t="n">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="X4" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="Y4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="AA4" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AB4" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AC4" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.5</v>
+        <v>5.6</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>13.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="AG4" t="n">
-        <v>201</v>
+        <v>500</v>
       </c>
       <c r="AH4" t="n">
-        <v>11</v>
+        <v>7.2</v>
       </c>
       <c r="AI4" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="AJ4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY4" t="n">
         <v>19</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AZ4" t="n">
+        <v>60</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>80</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC4" t="n">
         <v>51</v>
       </c>
-      <c r="AL4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>126</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>126</v>
-      </c>
       <c r="BD4" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>djGN4nIr</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>07/11/2024</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>22:45</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>COLOMBIA - PRIMERA A</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Pereira</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Atl. Nacional</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N5" t="n">
-        <v>7</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X5" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Q1OUVsW1</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>07/11/2024</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Tepatitlan de Morelos</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Tapatio</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N6" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="W6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>35</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>24</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>35</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>14</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>60</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>90</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>14</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>60</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>80</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>200</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD6" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD4"/>
+  <dimension ref="A1:BD3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>lpgmUAGj</t>
+          <t>djGN4nIr</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,179 +728,179 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21:15</t>
+          <t>22:45</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Velez Sarsfield</t>
+          <t>Pereira</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Atl. Nacional</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.45</v>
+        <v>2.57</v>
       </c>
       <c r="H2" t="n">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>7.5</v>
+        <v>2.85</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="K2" t="n">
-        <v>2.3</v>
+        <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="P2" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="R2" t="n">
-        <v>1.9</v>
+        <v>1.48</v>
       </c>
       <c r="S2" t="n">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="T2" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W2" t="n">
         <v>6.5</v>
       </c>
       <c r="X2" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC2" t="n">
         <v>6.5</v>
       </c>
-      <c r="Y2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>10</v>
-      </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
         <v>67</v>
       </c>
       <c r="AG2" t="n">
-        <v>451</v>
+        <v>900</v>
       </c>
       <c r="AH2" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="AI2" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AK2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR2" t="n">
         <v>81</v>
       </c>
-      <c r="AL2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>41</v>
-      </c>
       <c r="AS2" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="AT2" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AU2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV2" t="n">
         <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="AX2" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="AY2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ2" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="BA2" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BB2" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>djGN4nIr</t>
+          <t>Q1OUVsW1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,354 +910,172 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>22:45</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Pereira</t>
+          <t>Tepatitlan de Morelos</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Atl. Nacional</t>
+          <t>Tapatio</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.63</v>
+        <v>2.87</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="I3" t="n">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K3" t="n">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="L3" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
       <c r="P3" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T3" t="n">
         <v>2.5</v>
       </c>
-      <c r="Q3" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.25</v>
-      </c>
       <c r="U3" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="V3" t="n">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="W3" t="n">
-        <v>6.5</v>
+        <v>8.25</v>
       </c>
       <c r="X3" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="Z3" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="AA3" t="n">
         <v>26</v>
       </c>
       <c r="AB3" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="AC3" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AG3" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="AH3" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="AI3" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AJ3" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL3" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AM3" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AO3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP3" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="AQ3" t="n">
+        <v>60</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>60</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>80</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC3" t="n">
         <v>51</v>
       </c>
-      <c r="AR3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>126</v>
-      </c>
       <c r="BD3" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Q1OUVsW1</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>07/11/2024</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Tepatitlan de Morelos</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Tapatio</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="W4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X4" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>37</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>35</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>14</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>60</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>90</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>14</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>60</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>80</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>200</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD4" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.57</v>
+        <v>2.75</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="J2" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K2" t="n">
         <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M2" t="n">
         <v>1.11</v>
@@ -795,16 +795,16 @@
         <v>1.67</v>
       </c>
       <c r="W2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y2" t="n">
         <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA2" t="n">
         <v>26</v>
@@ -819,7 +819,7 @@
         <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
         <v>67</v>
@@ -831,10 +831,10 @@
         <v>7</v>
       </c>
       <c r="AI2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK2" t="n">
         <v>29</v>
@@ -849,7 +849,7 @@
         <v>4.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP2" t="n">
         <v>29</v>
@@ -858,7 +858,7 @@
         <v>51</v>
       </c>
       <c r="AR2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS2" t="n">
         <v>301</v>
@@ -873,7 +873,7 @@
         <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX2" t="n">
         <v>17</v>
@@ -932,7 +932,7 @@
         <v>2.87</v>
       </c>
       <c r="H3" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="I3" t="n">
         <v>2.55</v>
@@ -947,10 +947,10 @@
         <v>3.2</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>7.5</v>
+        <v>7.85</v>
       </c>
       <c r="O3" t="n">
         <v>1.37</v>
@@ -977,22 +977,22 @@
         <v>1.85</v>
       </c>
       <c r="W3" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="X3" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="Z3" t="n">
         <v>37</v>
       </c>
       <c r="AA3" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AB3" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC3" t="n">
         <v>7.5</v>
@@ -1010,7 +1010,7 @@
         <v>600</v>
       </c>
       <c r="AH3" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="AI3" t="n">
         <v>12.5</v>
@@ -1019,13 +1019,13 @@
         <v>9.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM3" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AN3" t="n">
         <v>4.6</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD3"/>
+  <dimension ref="A1:BD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -897,188 +897,6 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Q1OUVsW1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>07/11/2024</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Tepatitlan de Morelos</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Tapatio</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N3" t="n">
-        <v>7.85</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="W3" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="X3" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>37</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>28</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>37</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>22</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>14</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>60</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>90</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>14</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>60</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>80</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>200</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>51</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD2"/>
+  <dimension ref="A1:BD22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>djGN4nIr</t>
+          <t>bR8Aj2ug</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,173 +728,3813 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>22:45</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>ITALY - SERIE A</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Pereira</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Atl. Nacional</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="J2" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S2" t="n">
         <v>1.5</v>
       </c>
-      <c r="P2" t="n">
+      <c r="T2" t="n">
         <v>2.5</v>
       </c>
-      <c r="Q2" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.25</v>
-      </c>
       <c r="U2" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="V2" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="W2" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="X2" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y2" t="n">
         <v>12</v>
       </c>
-      <c r="Y2" t="n">
-        <v>11</v>
-      </c>
       <c r="Z2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA2" t="n">
         <v>29</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>26</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>900</v>
+        <v>351</v>
       </c>
       <c r="AH2" t="n">
         <v>7</v>
       </c>
       <c r="AI2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK2" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AL2" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AM2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AO2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP2" t="n">
         <v>29</v>
       </c>
       <c r="AQ2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR2" t="n">
         <v>101</v>
       </c>
       <c r="AS2" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="AU2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV2" t="n">
         <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY2" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AZ2" t="n">
         <v>51</v>
       </c>
       <c r="BA2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB2" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
       </c>
       <c r="BD2" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>h0hIZWhT</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>07/11/2024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>18:45</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ARGENTINA - TORNEO BETANO</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Talleres Cordoba</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Lanus</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>401</v>
+      </c>
+      <c r="BC3" t="n">
         <v>126</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>jkXVhfgi</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>07/11/2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ARGENTINA - TORNEO BETANO</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Defensa y Justicia</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Argentinos Jrs</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AgfqVj1p</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>07/11/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ARGENTINA - TORNEO BETANO</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Platense</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Dep. Riestra</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="X5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>401</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>251</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>lpgmUAGj</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>07/11/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>21:15</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ARGENTINA - TORNEO BETANO</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Velez Sarsfield</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Tigre</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L6" t="n">
+        <v>7</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N6" t="n">
+        <v>11</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>451</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>UDPaReIr</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>07/11/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>BULGARIA - PARVA LIGA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>CSKA 1948 Sofia</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>CSKA Sofia</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N7" t="n">
+        <v>9</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W7" t="n">
+        <v>11</v>
+      </c>
+      <c r="X7" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0KUiA8fL</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>07/11/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>18:50</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>COLOMBIA - PRIMERA A</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Junior</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W8" t="n">
+        <v>6</v>
+      </c>
+      <c r="X8" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4ECJO79E</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>07/11/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>20:45</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>COLOMBIA - PRIMERA A</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Dep. Pasto</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>America De Cali</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>7</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>djGN4nIr</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>07/11/2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>22:45</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>COLOMBIA - PRIMERA A</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Pereira</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Atl. Nacional</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W10" t="n">
+        <v>7</v>
+      </c>
+      <c r="X10" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>boe4DyiR</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>07/11/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>EGYPT - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Haras El Hodood</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>6</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W11" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="X11" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>35</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>28</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>175</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>200</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>450</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>jLidFcME</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>07/11/2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>EGYPT - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Ghazl El Mahallah</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>El Gaish</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N12" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W12" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="X12" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>45</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>27</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>100</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>150</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>70</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>120</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>350</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>APE9ifU7</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>07/11/2024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>EGYPT - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>ZED</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Al Ahly</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N13" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W13" t="n">
+        <v>14</v>
+      </c>
+      <c r="X13" t="n">
+        <v>37</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>75</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>37</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>250</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>300</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>55</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Emn9XsgJ</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>07/11/2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ENGLAND - CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>7</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X14" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>451</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>21pBZo3B</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>07/11/2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>00:05</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>MEXICO - LIGA MX</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Atlas</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Cruz Azul</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J15" t="n">
+        <v>5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N15" t="n">
+        <v>10</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W15" t="n">
+        <v>10</v>
+      </c>
+      <c r="X15" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>451</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>fys3y8Yb</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>07/11/2024</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>00:06</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>MEXICO - LIGA MX</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Juarez</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Club Tijuana</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>3</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N16" t="n">
+        <v>15</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W16" t="n">
+        <v>13</v>
+      </c>
+      <c r="X16" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>lzAPiPhL</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>07/11/2024</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>00:05</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Zacatecas Mineros</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Leones Negros</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N17" t="n">
+        <v>10</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="W17" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="X17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>75</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>100</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>120</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Q1OUVsW1</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>07/11/2024</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Tepatitlan de Morelos</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Tapatio</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N18" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="W18" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="X18" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>37</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>60</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>60</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>80</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>v12EbqCc</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>07/11/2024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>POLAND - DIVISION 1</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Ruch Chorzow</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Chrobry Glogow</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+      <c r="I19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L19" t="n">
+        <v>6</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N19" t="n">
+        <v>13</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W19" t="n">
+        <v>7</v>
+      </c>
+      <c r="X19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>YyDJubM9</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>07/11/2024</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Al Qadisiya</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Al Feiha</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="I20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N20" t="n">
+        <v>10</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W20" t="n">
+        <v>7</v>
+      </c>
+      <c r="X20" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>8fR1hy6F</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>07/11/2024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Al Kholood</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Al Shabab</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W21" t="n">
+        <v>12</v>
+      </c>
+      <c r="X21" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>O6ibYFEq</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>07/11/2024</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Al Orubah</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J22" t="n">
+        <v>7</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T22" t="n">
+        <v>3</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W22" t="n">
+        <v>17</v>
+      </c>
+      <c r="X22" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>151</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
